--- a/600734.xlsx
+++ b/600734.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minko\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\工作资料\Private\Private\openpyxl\009 使用配置文件计算财务比率\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="457">
   <si>
     <t>瑞安10-12地块资金运营计划表（万元）</t>
   </si>
@@ -1552,12 +1552,6 @@
     <t xml:space="preserve">投资收益（损失以“－”号填列） </t>
   </si>
   <si>
-    <t>以摊余成本计量的金融资产终</t>
-  </si>
-  <si>
-    <t xml:space="preserve">止确认收益 </t>
-  </si>
-  <si>
     <t xml:space="preserve">汇兑收益（损失以“－”号填列） </t>
   </si>
   <si>
@@ -1715,6 +1709,18 @@
   </si>
   <si>
     <t xml:space="preserve">（一）归属于母公司所有者的综合收益总额 </t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>附注</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">以摊余成本计量的金融资产终止确认收益 </t>
     <phoneticPr fontId="38" type="noConversion"/>
   </si>
 </sst>
@@ -2911,9 +2917,132 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="41" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="43" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="41" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="45" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2950,131 +3079,8 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="43" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="45" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3416,21 +3422,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="241" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="33">
       <c r="A2" s="4" t="s">
@@ -4993,1269 +4999,1270 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" style="225" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1796875" style="225" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" style="206" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" style="206" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="227" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="227" t="s">
-        <v>280</v>
-      </c>
-      <c r="C1" s="251" t="s">
+      <c r="A1" s="208" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1" s="208" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" s="232" t="s">
         <v>281</v>
       </c>
-      <c r="D1" s="251" t="s">
+      <c r="D1" s="232" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="209" t="s">
         <v>283</v>
       </c>
-      <c r="B2" s="230" t="s">
-        <v>284</v>
-      </c>
-      <c r="C2" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="D2" s="231" t="s">
+      <c r="B2" s="211" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="212" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="212" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="213" t="s">
         <v>285</v>
       </c>
-      <c r="B3" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="233">
+      <c r="B3" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="214">
         <v>215664686.74000001</v>
       </c>
-      <c r="D3" s="233">
+      <c r="D3" s="214">
         <v>299366263.52999997</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.5">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="213" t="s">
         <v>286</v>
       </c>
-      <c r="B4" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
+      <c r="B4" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
     </row>
     <row r="5" spans="1:4" ht="14.5">
-      <c r="A5" s="232" t="s">
+      <c r="A5" s="213" t="s">
         <v>287</v>
       </c>
-      <c r="B5" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
+      <c r="B5" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
     </row>
     <row r="6" spans="1:4" ht="14.5">
-      <c r="A6" s="232" t="s">
+      <c r="A6" s="213" t="s">
         <v>288</v>
       </c>
-      <c r="B6" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
+      <c r="B6" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="215"/>
+      <c r="D6" s="215"/>
     </row>
     <row r="7" spans="1:4" ht="14" customHeight="1">
-      <c r="A7" s="232" t="s">
+      <c r="A7" s="213" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="215"/>
+      <c r="D7" s="215"/>
+    </row>
+    <row r="8" spans="1:4" ht="14.5">
+      <c r="A8" s="213" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="213" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="214">
+        <v>134829429.77000001</v>
+      </c>
+      <c r="D9" s="214">
+        <v>112193052.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="213" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" s="214">
+        <v>498302580.38</v>
+      </c>
+      <c r="D10" s="214">
+        <v>3373979906.9299998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.5">
+      <c r="A11" s="213" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="215"/>
+      <c r="D11" s="215"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="213" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="214">
+        <v>158550734.24000001</v>
+      </c>
+      <c r="D12" s="214">
+        <v>667469447.53999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.5">
+      <c r="A13" s="213" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="215"/>
+      <c r="D13" s="215"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.5">
+      <c r="A14" s="213" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="215"/>
+      <c r="D14" s="215"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.5">
+      <c r="A15" s="213" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" s="215"/>
+      <c r="D15" s="215"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="213" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="214">
+        <v>17422335.73</v>
+      </c>
+      <c r="D16" s="214">
+        <v>71645789.430000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.5">
+      <c r="A17" s="213" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" s="215"/>
+      <c r="D17" s="215"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.5">
+      <c r="A18" s="216" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="215"/>
+      <c r="D18" s="215"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.5">
+      <c r="A19" s="213" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19" s="215"/>
+      <c r="D19" s="215"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="213" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C20" s="214">
+        <v>469909848.26999998</v>
+      </c>
+      <c r="D20" s="214">
+        <v>775275984.23000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.5">
+      <c r="A21" s="213" t="s">
+        <v>302</v>
+      </c>
+      <c r="B21" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="215"/>
+      <c r="D21" s="215"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.5">
+      <c r="A22" s="213" t="s">
+        <v>303</v>
+      </c>
+      <c r="B22" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C22" s="215"/>
+      <c r="D22" s="215"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="213" t="s">
+        <v>304</v>
+      </c>
+      <c r="B23" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="214">
+        <v>54993075.82</v>
+      </c>
+      <c r="D23" s="214">
+        <v>20841605.16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="213" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="214">
+        <v>42251868.710000001</v>
+      </c>
+      <c r="D24" s="214">
+        <v>6437498.0899999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="228" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="214">
+        <v>1591924559.6600001</v>
+      </c>
+      <c r="D25" s="214">
+        <v>5327209547.8299999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.5">
+      <c r="A26" s="209" t="s">
+        <v>307</v>
+      </c>
+      <c r="B26" s="217" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="215"/>
+      <c r="D26" s="215"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.5">
+      <c r="A27" s="213" t="s">
+        <v>308</v>
+      </c>
+      <c r="B27" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C27" s="215"/>
+      <c r="D27" s="215"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.5">
+      <c r="A28" s="213" t="s">
+        <v>309</v>
+      </c>
+      <c r="B28" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C28" s="215"/>
+      <c r="D28" s="215"/>
+    </row>
+    <row r="29" spans="1:4" ht="14.5">
+      <c r="A29" s="213" t="s">
+        <v>310</v>
+      </c>
+      <c r="B29" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C29" s="215"/>
+      <c r="D29" s="214">
+        <v>23677731.899999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.5">
+      <c r="A30" s="213" t="s">
+        <v>311</v>
+      </c>
+      <c r="B30" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" s="215"/>
+      <c r="D30" s="215"/>
+    </row>
+    <row r="31" spans="1:4" ht="14.5">
+      <c r="A31" s="213" t="s">
+        <v>312</v>
+      </c>
+      <c r="B31" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" s="215"/>
+      <c r="D31" s="215"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="213" t="s">
+        <v>313</v>
+      </c>
+      <c r="B32" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" s="214">
+        <v>267914083.22999999</v>
+      </c>
+      <c r="D32" s="214">
+        <v>188124181.38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="213" t="s">
+        <v>314</v>
+      </c>
+      <c r="B33" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C33" s="214">
+        <v>53656748.659999996</v>
+      </c>
+      <c r="D33" s="214">
+        <v>53566293.409999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14.5">
+      <c r="A34" s="213" t="s">
+        <v>315</v>
+      </c>
+      <c r="B34" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" s="215"/>
+      <c r="D34" s="215"/>
+    </row>
+    <row r="35" spans="1:4" ht="14.5">
+      <c r="A35" s="213" t="s">
+        <v>316</v>
+      </c>
+      <c r="B35" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C35" s="214">
+        <v>16113352.41</v>
+      </c>
+      <c r="D35" s="215"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="213" t="s">
+        <v>317</v>
+      </c>
+      <c r="B36" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C36" s="214">
+        <v>240336881.59</v>
+      </c>
+      <c r="D36" s="214">
+        <v>252327574.38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="213" t="s">
+        <v>318</v>
+      </c>
+      <c r="B37" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C37" s="214">
+        <v>251545437.47999999</v>
+      </c>
+      <c r="D37" s="214">
+        <v>260803802.97999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.5">
+      <c r="A38" s="213" t="s">
+        <v>319</v>
+      </c>
+      <c r="B38" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C38" s="215"/>
+      <c r="D38" s="215"/>
+    </row>
+    <row r="39" spans="1:4" ht="14.5">
+      <c r="A39" s="213" t="s">
+        <v>320</v>
+      </c>
+      <c r="B39" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C39" s="215"/>
+      <c r="D39" s="215"/>
+    </row>
+    <row r="40" spans="1:4" ht="14.5">
+      <c r="A40" s="213" t="s">
+        <v>321</v>
+      </c>
+      <c r="B40" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C40" s="215"/>
+      <c r="D40" s="215"/>
+    </row>
+    <row r="41" spans="1:4" ht="14.5">
+      <c r="A41" s="213" t="s">
+        <v>322</v>
+      </c>
+      <c r="B41" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C41" s="215"/>
+      <c r="D41" s="215"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="213" t="s">
+        <v>323</v>
+      </c>
+      <c r="B42" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C42" s="214">
+        <v>46582499.859999999</v>
+      </c>
+      <c r="D42" s="214">
+        <v>63405749.630000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="14.5">
+      <c r="A43" s="218" t="s">
+        <v>324</v>
+      </c>
+      <c r="B43" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43" s="219"/>
+      <c r="D43" s="219"/>
+    </row>
+    <row r="44" spans="1:4" ht="14.5">
+      <c r="A44" s="218" t="s">
+        <v>325</v>
+      </c>
+      <c r="B44" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C44" s="219"/>
+      <c r="D44" s="220">
+        <v>1028261563.3200001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="218" t="s">
+        <v>326</v>
+      </c>
+      <c r="B45" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C45" s="221">
+        <v>22288879.280000001</v>
+      </c>
+      <c r="D45" s="221">
+        <v>30540805.57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="218" t="s">
+        <v>327</v>
+      </c>
+      <c r="B46" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C46" s="221">
+        <v>65132502.82</v>
+      </c>
+      <c r="D46" s="221">
+        <v>29391914.899999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="218" t="s">
+        <v>328</v>
+      </c>
+      <c r="B47" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" s="221">
+        <v>62678881.880000003</v>
+      </c>
+      <c r="D47" s="221">
+        <v>79278074.200000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="229" t="s">
+        <v>329</v>
+      </c>
+      <c r="B48" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C48" s="221">
+        <v>1026249267.21</v>
+      </c>
+      <c r="D48" s="220">
+        <v>2009377691.6700001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="230" t="s">
+        <v>330</v>
+      </c>
+      <c r="B49" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C49" s="221">
+        <v>2618173826.8699999</v>
+      </c>
+      <c r="D49" s="220">
+        <v>7336587239.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.5">
+      <c r="A50" s="223" t="s">
+        <v>331</v>
+      </c>
+      <c r="B50" s="224" t="s">
+        <v>284</v>
+      </c>
+      <c r="C50" s="219"/>
+      <c r="D50" s="219"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="218" t="s">
+        <v>332</v>
+      </c>
+      <c r="B51" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C51" s="221">
+        <v>1709073009.52</v>
+      </c>
+      <c r="D51" s="220">
+        <v>1041619581.4400001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14.5">
+      <c r="A52" s="218" t="s">
+        <v>333</v>
+      </c>
+      <c r="B52" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C52" s="219"/>
+      <c r="D52" s="219"/>
+    </row>
+    <row r="53" spans="1:4" ht="14.5">
+      <c r="A53" s="218" t="s">
+        <v>334</v>
+      </c>
+      <c r="B53" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C53" s="219"/>
+      <c r="D53" s="219"/>
+    </row>
+    <row r="54" spans="1:4" ht="14.5">
+      <c r="A54" s="218" t="s">
+        <v>335</v>
+      </c>
+      <c r="B54" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C54" s="219"/>
+      <c r="D54" s="219"/>
+    </row>
+    <row r="55" spans="1:4" ht="14.5">
+      <c r="A55" s="218" t="s">
+        <v>439</v>
+      </c>
+      <c r="B55" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C55" s="219"/>
+      <c r="D55" s="219"/>
+    </row>
+    <row r="56" spans="1:4" ht="14.5">
+      <c r="A56" s="218" t="s">
+        <v>336</v>
+      </c>
+      <c r="B56" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C56" s="219"/>
+      <c r="D56" s="219"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="218" t="s">
+        <v>337</v>
+      </c>
+      <c r="B57" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C57" s="221">
+        <v>96304716.090000004</v>
+      </c>
+      <c r="D57" s="220">
+        <v>187800568.91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="218" t="s">
+        <v>338</v>
+      </c>
+      <c r="B58" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C58" s="221">
+        <v>601836796.69000006</v>
+      </c>
+      <c r="D58" s="220">
+        <v>2145733057.4400001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="218" t="s">
+        <v>339</v>
+      </c>
+      <c r="B59" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" s="221">
+        <v>202883386.56</v>
+      </c>
+      <c r="D59" s="220">
+        <v>270065963.33999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="14.5">
+      <c r="A60" s="218" t="s">
+        <v>340</v>
+      </c>
+      <c r="B60" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C60" s="219"/>
+      <c r="D60" s="219"/>
+    </row>
+    <row r="61" spans="1:4" ht="14.5">
+      <c r="A61" s="218" t="s">
+        <v>341</v>
+      </c>
+      <c r="B61" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C61" s="219"/>
+      <c r="D61" s="219"/>
+    </row>
+    <row r="62" spans="1:4" ht="14.5">
+      <c r="A62" s="218" t="s">
+        <v>342</v>
+      </c>
+      <c r="B62" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C62" s="219"/>
+      <c r="D62" s="219"/>
+    </row>
+    <row r="63" spans="1:4" ht="14.5">
+      <c r="A63" s="218" t="s">
+        <v>343</v>
+      </c>
+      <c r="B63" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C63" s="219"/>
+      <c r="D63" s="219"/>
+    </row>
+    <row r="64" spans="1:4" ht="14.5">
+      <c r="A64" s="218" t="s">
+        <v>344</v>
+      </c>
+      <c r="B64" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C64" s="219"/>
+      <c r="D64" s="219"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="218" t="s">
+        <v>345</v>
+      </c>
+      <c r="B65" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C65" s="221">
+        <v>35745466.630000003</v>
+      </c>
+      <c r="D65" s="221">
+        <v>28742985.23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="218" t="s">
+        <v>346</v>
+      </c>
+      <c r="B66" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C66" s="221">
+        <v>32404706.449999999</v>
+      </c>
+      <c r="D66" s="220">
+        <v>185342945.19999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="218" t="s">
+        <v>347</v>
+      </c>
+      <c r="B67" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C67" s="221">
+        <v>261293127.62</v>
+      </c>
+      <c r="D67" s="220">
+        <v>128131691.98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="218" t="s">
+        <v>348</v>
+      </c>
+      <c r="B68" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C68" s="221">
+        <v>34053494.630000003</v>
+      </c>
+      <c r="D68" s="221">
+        <v>7516092.2599999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="222" t="s">
+        <v>349</v>
+      </c>
+      <c r="B69" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C69" s="225">
+        <v>240900</v>
+      </c>
+      <c r="D69" s="225">
+        <v>240900</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="14.5">
+      <c r="A70" s="218" t="s">
+        <v>350</v>
+      </c>
+      <c r="B70" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C70" s="219"/>
+      <c r="D70" s="219"/>
+    </row>
+    <row r="71" spans="1:4" ht="14.5">
+      <c r="A71" s="218" t="s">
+        <v>351</v>
+      </c>
+      <c r="B71" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C71" s="219"/>
+      <c r="D71" s="219"/>
+    </row>
+    <row r="72" spans="1:4" ht="14.5">
+      <c r="A72" s="218" t="s">
+        <v>352</v>
+      </c>
+      <c r="B72" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C72" s="219"/>
+      <c r="D72" s="219"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="218" t="s">
+        <v>353</v>
+      </c>
+      <c r="B73" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C73" s="221">
+        <v>29432656.32</v>
+      </c>
+      <c r="D73" s="220">
+        <v>595970703.59000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="14.5">
+      <c r="A74" s="218" t="s">
+        <v>354</v>
+      </c>
+      <c r="B74" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C74" s="221">
+        <v>40097314.840000004</v>
+      </c>
+      <c r="D74" s="219"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="229" t="s">
+        <v>355</v>
+      </c>
+      <c r="B75" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C75" s="221">
+        <v>3009071180.7199998</v>
+      </c>
+      <c r="D75" s="220">
+        <v>4583407497.1300001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="14.5">
+      <c r="A76" s="223" t="s">
+        <v>356</v>
+      </c>
+      <c r="B76" s="226" t="s">
+        <v>284</v>
+      </c>
+      <c r="C76" s="219"/>
+      <c r="D76" s="219"/>
+    </row>
+    <row r="77" spans="1:4" ht="14.5">
+      <c r="A77" s="218" t="s">
+        <v>357</v>
+      </c>
+      <c r="B77" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C77" s="219"/>
+      <c r="D77" s="219"/>
+    </row>
+    <row r="78" spans="1:4" ht="14.5">
+      <c r="A78" s="218" t="s">
+        <v>358</v>
+      </c>
+      <c r="B78" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C78" s="219"/>
+      <c r="D78" s="221">
+        <v>64300000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="14.5">
+      <c r="A79" s="218" t="s">
+        <v>359</v>
+      </c>
+      <c r="B79" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C79" s="219"/>
+      <c r="D79" s="219"/>
+    </row>
+    <row r="80" spans="1:4" ht="14.5">
+      <c r="A80" s="218" t="s">
+        <v>360</v>
+      </c>
+      <c r="B80" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C80" s="219"/>
+      <c r="D80" s="219"/>
+    </row>
+    <row r="81" spans="1:4" ht="14.5">
+      <c r="A81" s="222" t="s">
+        <v>361</v>
+      </c>
+      <c r="B81" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C81" s="219"/>
+      <c r="D81" s="219"/>
+    </row>
+    <row r="82" spans="1:4" ht="14.5">
+      <c r="A82" s="218" t="s">
+        <v>362</v>
+      </c>
+      <c r="B82" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C82" s="219"/>
+      <c r="D82" s="219"/>
+    </row>
+    <row r="83" spans="1:4" ht="14.5">
+      <c r="A83" s="218" t="s">
+        <v>363</v>
+      </c>
+      <c r="B83" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C83" s="219"/>
+      <c r="D83" s="219"/>
+    </row>
+    <row r="84" spans="1:4" ht="14.5">
+      <c r="A84" s="218" t="s">
+        <v>364</v>
+      </c>
+      <c r="B84" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C84" s="219"/>
+      <c r="D84" s="219"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="218" t="s">
+        <v>365</v>
+      </c>
+      <c r="B85" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C85" s="225">
+        <v>8363282.1200000001</v>
+      </c>
+      <c r="D85" s="225">
+        <v>234002.42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="218" t="s">
+        <v>366</v>
+      </c>
+      <c r="B86" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C86" s="221">
+        <v>67628600.290000007</v>
+      </c>
+      <c r="D86" s="221">
+        <v>73273840.209999993</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="218" t="s">
+        <v>367</v>
+      </c>
+      <c r="B87" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C87" s="225">
+        <v>1455288.83</v>
+      </c>
+      <c r="D87" s="221">
+        <v>5180420.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="14.5">
+      <c r="A88" s="218" t="s">
+        <v>368</v>
+      </c>
+      <c r="B88" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C88" s="219"/>
+      <c r="D88" s="219"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="229" t="s">
+        <v>369</v>
+      </c>
+      <c r="B89" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C89" s="221">
+        <v>77447171.239999995</v>
+      </c>
+      <c r="D89" s="220">
+        <v>142988263.43000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="230" t="s">
+        <v>370</v>
+      </c>
+      <c r="B90" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C90" s="221">
+        <v>3086518351.96</v>
+      </c>
+      <c r="D90" s="220">
+        <v>4726395760.5600004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="14.5">
+      <c r="A91" s="223" t="s">
+        <v>371</v>
+      </c>
+      <c r="B91" s="226" t="s">
+        <v>284</v>
+      </c>
+      <c r="C91" s="219"/>
+      <c r="D91" s="219"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="218" t="s">
+        <v>372</v>
+      </c>
+      <c r="B92" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C92" s="221">
+        <v>622372316</v>
+      </c>
+      <c r="D92" s="220">
+        <v>623515807</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="14.5">
+      <c r="A93" s="218" t="s">
+        <v>373</v>
+      </c>
+      <c r="B93" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C93" s="219"/>
+      <c r="D93" s="219"/>
+    </row>
+    <row r="94" spans="1:4" ht="14.5">
+      <c r="A94" s="218" t="s">
+        <v>360</v>
+      </c>
+      <c r="B94" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C94" s="219"/>
+      <c r="D94" s="219"/>
+    </row>
+    <row r="95" spans="1:4" ht="14.5">
+      <c r="A95" s="222" t="s">
+        <v>361</v>
+      </c>
+      <c r="B95" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C95" s="219"/>
+      <c r="D95" s="219"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="218" t="s">
+        <v>374</v>
+      </c>
+      <c r="B96" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C96" s="221">
+        <v>2078156372.6800001</v>
+      </c>
+      <c r="D96" s="220">
+        <v>2091171752.8900001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="14.5">
+      <c r="A97" s="218" t="s">
+        <v>375</v>
+      </c>
+      <c r="B97" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C97" s="219"/>
+      <c r="D97" s="219"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="218" t="s">
+        <v>376</v>
+      </c>
+      <c r="B98" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" s="221">
+        <v>-15751238.83</v>
+      </c>
+      <c r="D98" s="221">
+        <v>1508416.92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="14.5">
+      <c r="A99" s="218" t="s">
+        <v>377</v>
+      </c>
+      <c r="B99" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C99" s="219"/>
+      <c r="D99" s="219"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="218" t="s">
+        <v>378</v>
+      </c>
+      <c r="B100" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C100" s="221">
+        <v>19062040.02</v>
+      </c>
+      <c r="D100" s="221">
+        <v>19062040.02</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="14.5">
+      <c r="A101" s="218" t="s">
+        <v>379</v>
+      </c>
+      <c r="B101" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C101" s="219"/>
+      <c r="D101" s="219"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="218" t="s">
+        <v>380</v>
+      </c>
+      <c r="B102" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C102" s="220">
+        <v>-3172094908.6500001</v>
+      </c>
+      <c r="D102" s="220">
+        <v>-125066537.89</v>
+      </c>
+      <c r="G102" s="231"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="218" t="s">
         <v>440</v>
       </c>
-      <c r="B7" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" s="234"/>
-      <c r="D7" s="234"/>
-    </row>
-    <row r="8" spans="1:4" ht="14.5">
-      <c r="A8" s="232" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" s="234"/>
-      <c r="D8" s="234"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="232" t="s">
-        <v>290</v>
-      </c>
-      <c r="B9" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C9" s="233">
-        <v>134829429.77000001</v>
-      </c>
-      <c r="D9" s="233">
-        <v>112193052.92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="232" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C10" s="233">
-        <v>498302580.38</v>
-      </c>
-      <c r="D10" s="233">
-        <v>3373979906.9299998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.5">
-      <c r="A11" s="232" t="s">
-        <v>292</v>
-      </c>
-      <c r="B11" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="232" t="s">
-        <v>293</v>
-      </c>
-      <c r="B12" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C12" s="233">
-        <v>158550734.24000001</v>
-      </c>
-      <c r="D12" s="233">
-        <v>667469447.53999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.5">
-      <c r="A13" s="232" t="s">
-        <v>294</v>
-      </c>
-      <c r="B13" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C13" s="234"/>
-      <c r="D13" s="234"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.5">
-      <c r="A14" s="232" t="s">
-        <v>295</v>
-      </c>
-      <c r="B14" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C14" s="234"/>
-      <c r="D14" s="234"/>
-    </row>
-    <row r="15" spans="1:4" ht="14.5">
-      <c r="A15" s="232" t="s">
-        <v>296</v>
-      </c>
-      <c r="B15" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C15" s="234"/>
-      <c r="D15" s="234"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="232" t="s">
-        <v>297</v>
-      </c>
-      <c r="B16" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C16" s="233">
-        <v>17422335.73</v>
-      </c>
-      <c r="D16" s="233">
-        <v>71645789.430000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.5">
-      <c r="A17" s="232" t="s">
-        <v>298</v>
-      </c>
-      <c r="B17" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C17" s="234"/>
-      <c r="D17" s="234"/>
-    </row>
-    <row r="18" spans="1:4" ht="14.5">
-      <c r="A18" s="235" t="s">
-        <v>299</v>
-      </c>
-      <c r="B18" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C18" s="234"/>
-      <c r="D18" s="234"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.5">
-      <c r="A19" s="232" t="s">
-        <v>300</v>
-      </c>
-      <c r="B19" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C19" s="234"/>
-      <c r="D19" s="234"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="232" t="s">
-        <v>301</v>
-      </c>
-      <c r="B20" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C20" s="233">
-        <v>469909848.26999998</v>
-      </c>
-      <c r="D20" s="233">
-        <v>775275984.23000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.5">
-      <c r="A21" s="232" t="s">
-        <v>302</v>
-      </c>
-      <c r="B21" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C21" s="234"/>
-      <c r="D21" s="234"/>
-    </row>
-    <row r="22" spans="1:4" ht="14.5">
-      <c r="A22" s="232" t="s">
-        <v>303</v>
-      </c>
-      <c r="B22" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C22" s="234"/>
-      <c r="D22" s="234"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="232" t="s">
-        <v>304</v>
-      </c>
-      <c r="B23" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C23" s="233">
-        <v>54993075.82</v>
-      </c>
-      <c r="D23" s="233">
-        <v>20841605.16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="232" t="s">
-        <v>305</v>
-      </c>
-      <c r="B24" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C24" s="233">
-        <v>42251868.710000001</v>
-      </c>
-      <c r="D24" s="233">
-        <v>6437498.0899999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="247" t="s">
-        <v>306</v>
-      </c>
-      <c r="B25" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C25" s="233">
-        <v>1591924559.6600001</v>
-      </c>
-      <c r="D25" s="233">
-        <v>5327209547.8299999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="14.5">
-      <c r="A26" s="228" t="s">
-        <v>307</v>
-      </c>
-      <c r="B26" s="236" t="s">
-        <v>284</v>
-      </c>
-      <c r="C26" s="234"/>
-      <c r="D26" s="234"/>
-    </row>
-    <row r="27" spans="1:4" ht="14.5">
-      <c r="A27" s="232" t="s">
-        <v>308</v>
-      </c>
-      <c r="B27" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C27" s="234"/>
-      <c r="D27" s="234"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.5">
-      <c r="A28" s="232" t="s">
-        <v>309</v>
-      </c>
-      <c r="B28" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C28" s="234"/>
-      <c r="D28" s="234"/>
-    </row>
-    <row r="29" spans="1:4" ht="14.5">
-      <c r="A29" s="232" t="s">
-        <v>310</v>
-      </c>
-      <c r="B29" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C29" s="234"/>
-      <c r="D29" s="233">
-        <v>23677731.899999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="14.5">
-      <c r="A30" s="232" t="s">
-        <v>311</v>
-      </c>
-      <c r="B30" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C30" s="234"/>
-      <c r="D30" s="234"/>
-    </row>
-    <row r="31" spans="1:4" ht="14.5">
-      <c r="A31" s="232" t="s">
-        <v>312</v>
-      </c>
-      <c r="B31" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C31" s="234"/>
-      <c r="D31" s="234"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="232" t="s">
-        <v>313</v>
-      </c>
-      <c r="B32" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C32" s="233">
-        <v>267914083.22999999</v>
-      </c>
-      <c r="D32" s="233">
-        <v>188124181.38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="232" t="s">
-        <v>314</v>
-      </c>
-      <c r="B33" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C33" s="233">
-        <v>53656748.659999996</v>
-      </c>
-      <c r="D33" s="233">
-        <v>53566293.409999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="14.5">
-      <c r="A34" s="232" t="s">
-        <v>315</v>
-      </c>
-      <c r="B34" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C34" s="234"/>
-      <c r="D34" s="234"/>
-    </row>
-    <row r="35" spans="1:4" ht="14.5">
-      <c r="A35" s="232" t="s">
-        <v>316</v>
-      </c>
-      <c r="B35" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C35" s="233">
-        <v>16113352.41</v>
-      </c>
-      <c r="D35" s="234"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="232" t="s">
-        <v>317</v>
-      </c>
-      <c r="B36" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C36" s="233">
-        <v>240336881.59</v>
-      </c>
-      <c r="D36" s="233">
-        <v>252327574.38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="232" t="s">
-        <v>318</v>
-      </c>
-      <c r="B37" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C37" s="233">
-        <v>251545437.47999999</v>
-      </c>
-      <c r="D37" s="233">
-        <v>260803802.97999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="14.5">
-      <c r="A38" s="232" t="s">
-        <v>319</v>
-      </c>
-      <c r="B38" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C38" s="234"/>
-      <c r="D38" s="234"/>
-    </row>
-    <row r="39" spans="1:4" ht="14.5">
-      <c r="A39" s="232" t="s">
-        <v>320</v>
-      </c>
-      <c r="B39" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C39" s="234"/>
-      <c r="D39" s="234"/>
-    </row>
-    <row r="40" spans="1:4" ht="14.5">
-      <c r="A40" s="232" t="s">
-        <v>321</v>
-      </c>
-      <c r="B40" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C40" s="234"/>
-      <c r="D40" s="234"/>
-    </row>
-    <row r="41" spans="1:4" ht="14.5">
-      <c r="A41" s="232" t="s">
-        <v>322</v>
-      </c>
-      <c r="B41" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C41" s="234"/>
-      <c r="D41" s="234"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="232" t="s">
-        <v>323</v>
-      </c>
-      <c r="B42" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C42" s="233">
-        <v>46582499.859999999</v>
-      </c>
-      <c r="D42" s="233">
-        <v>63405749.630000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="14.5">
-      <c r="A43" s="237" t="s">
-        <v>324</v>
-      </c>
-      <c r="B43" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C43" s="238"/>
-      <c r="D43" s="238"/>
-    </row>
-    <row r="44" spans="1:4" ht="14.5">
-      <c r="A44" s="237" t="s">
-        <v>325</v>
-      </c>
-      <c r="B44" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C44" s="238"/>
-      <c r="D44" s="239">
-        <v>1028261563.3200001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="237" t="s">
-        <v>326</v>
-      </c>
-      <c r="B45" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C45" s="240">
-        <v>22288879.280000001</v>
-      </c>
-      <c r="D45" s="240">
-        <v>30540805.57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="237" t="s">
-        <v>327</v>
-      </c>
-      <c r="B46" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C46" s="240">
-        <v>65132502.82</v>
-      </c>
-      <c r="D46" s="240">
-        <v>29391914.899999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="237" t="s">
-        <v>328</v>
-      </c>
-      <c r="B47" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C47" s="240">
-        <v>62678881.880000003</v>
-      </c>
-      <c r="D47" s="240">
-        <v>79278074.200000003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="248" t="s">
-        <v>329</v>
-      </c>
-      <c r="B48" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C48" s="240">
-        <v>1026249267.21</v>
-      </c>
-      <c r="D48" s="239">
-        <v>2009377691.6700001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="249" t="s">
-        <v>330</v>
-      </c>
-      <c r="B49" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C49" s="240">
+      <c r="B103" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C103" s="227">
+        <v>-468255418.77999997</v>
+      </c>
+      <c r="D103" s="227">
+        <v>2610191478.9400001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="14.5">
+      <c r="A104" s="218" t="s">
+        <v>381</v>
+      </c>
+      <c r="B104" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C104" s="225">
+        <v>-89106.31</v>
+      </c>
+      <c r="D104" s="219"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="223" t="s">
+        <v>441</v>
+      </c>
+      <c r="B105" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C105" s="221">
+        <v>-468344525.08999997</v>
+      </c>
+      <c r="D105" s="220">
+        <v>2610191478.9400001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="223" t="s">
+        <v>442</v>
+      </c>
+      <c r="B106" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C106" s="221">
         <v>2618173826.8699999</v>
       </c>
-      <c r="D49" s="239">
-        <v>7336587239.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="14.5">
-      <c r="A50" s="242" t="s">
-        <v>331</v>
-      </c>
-      <c r="B50" s="243" t="s">
-        <v>284</v>
-      </c>
-      <c r="C50" s="238"/>
-      <c r="D50" s="238"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="237" t="s">
-        <v>332</v>
-      </c>
-      <c r="B51" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C51" s="240">
-        <v>1709073009.52</v>
-      </c>
-      <c r="D51" s="239">
-        <v>1041619581.4400001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="14.5">
-      <c r="A52" s="237" t="s">
-        <v>333</v>
-      </c>
-      <c r="B52" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C52" s="238"/>
-      <c r="D52" s="238"/>
-    </row>
-    <row r="53" spans="1:4" ht="14.5">
-      <c r="A53" s="237" t="s">
-        <v>334</v>
-      </c>
-      <c r="B53" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C53" s="238"/>
-      <c r="D53" s="238"/>
-    </row>
-    <row r="54" spans="1:4" ht="14.5">
-      <c r="A54" s="237" t="s">
-        <v>335</v>
-      </c>
-      <c r="B54" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C54" s="238"/>
-      <c r="D54" s="238"/>
-    </row>
-    <row r="55" spans="1:4" ht="14.5">
-      <c r="A55" s="237" t="s">
-        <v>441</v>
-      </c>
-      <c r="B55" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C55" s="238"/>
-      <c r="D55" s="238"/>
-    </row>
-    <row r="56" spans="1:4" ht="14.5">
-      <c r="A56" s="237" t="s">
-        <v>336</v>
-      </c>
-      <c r="B56" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C56" s="238"/>
-      <c r="D56" s="238"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="237" t="s">
-        <v>337</v>
-      </c>
-      <c r="B57" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C57" s="240">
-        <v>96304716.090000004</v>
-      </c>
-      <c r="D57" s="239">
-        <v>187800568.91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="237" t="s">
-        <v>338</v>
-      </c>
-      <c r="B58" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C58" s="240">
-        <v>601836796.69000006</v>
-      </c>
-      <c r="D58" s="239">
-        <v>2145733057.4400001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="237" t="s">
-        <v>339</v>
-      </c>
-      <c r="B59" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C59" s="240">
-        <v>202883386.56</v>
-      </c>
-      <c r="D59" s="239">
-        <v>270065963.33999997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="14.5">
-      <c r="A60" s="237" t="s">
-        <v>340</v>
-      </c>
-      <c r="B60" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C60" s="238"/>
-      <c r="D60" s="238"/>
-    </row>
-    <row r="61" spans="1:4" ht="14.5">
-      <c r="A61" s="237" t="s">
-        <v>341</v>
-      </c>
-      <c r="B61" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C61" s="238"/>
-      <c r="D61" s="238"/>
-    </row>
-    <row r="62" spans="1:4" ht="14.5">
-      <c r="A62" s="237" t="s">
-        <v>342</v>
-      </c>
-      <c r="B62" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C62" s="238"/>
-      <c r="D62" s="238"/>
-    </row>
-    <row r="63" spans="1:4" ht="14.5">
-      <c r="A63" s="237" t="s">
-        <v>343</v>
-      </c>
-      <c r="B63" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C63" s="238"/>
-      <c r="D63" s="238"/>
-    </row>
-    <row r="64" spans="1:4" ht="14.5">
-      <c r="A64" s="237" t="s">
-        <v>344</v>
-      </c>
-      <c r="B64" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C64" s="238"/>
-      <c r="D64" s="238"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="237" t="s">
-        <v>345</v>
-      </c>
-      <c r="B65" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C65" s="240">
-        <v>35745466.630000003</v>
-      </c>
-      <c r="D65" s="240">
-        <v>28742985.23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="237" t="s">
-        <v>346</v>
-      </c>
-      <c r="B66" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C66" s="240">
-        <v>32404706.449999999</v>
-      </c>
-      <c r="D66" s="239">
-        <v>185342945.19999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="237" t="s">
-        <v>347</v>
-      </c>
-      <c r="B67" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C67" s="240">
-        <v>261293127.62</v>
-      </c>
-      <c r="D67" s="239">
-        <v>128131691.98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="237" t="s">
-        <v>348</v>
-      </c>
-      <c r="B68" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C68" s="240">
-        <v>34053494.630000003</v>
-      </c>
-      <c r="D68" s="240">
-        <v>7516092.2599999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="241" t="s">
-        <v>349</v>
-      </c>
-      <c r="B69" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C69" s="244">
-        <v>240900</v>
-      </c>
-      <c r="D69" s="244">
-        <v>240900</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="14.5">
-      <c r="A70" s="237" t="s">
-        <v>350</v>
-      </c>
-      <c r="B70" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C70" s="238"/>
-      <c r="D70" s="238"/>
-    </row>
-    <row r="71" spans="1:4" ht="14.5">
-      <c r="A71" s="237" t="s">
-        <v>351</v>
-      </c>
-      <c r="B71" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C71" s="238"/>
-      <c r="D71" s="238"/>
-    </row>
-    <row r="72" spans="1:4" ht="14.5">
-      <c r="A72" s="237" t="s">
-        <v>352</v>
-      </c>
-      <c r="B72" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C72" s="238"/>
-      <c r="D72" s="238"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="237" t="s">
-        <v>353</v>
-      </c>
-      <c r="B73" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C73" s="240">
-        <v>29432656.32</v>
-      </c>
-      <c r="D73" s="239">
-        <v>595970703.59000003</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="14.5">
-      <c r="A74" s="237" t="s">
-        <v>354</v>
-      </c>
-      <c r="B74" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C74" s="240">
-        <v>40097314.840000004</v>
-      </c>
-      <c r="D74" s="238"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="248" t="s">
-        <v>355</v>
-      </c>
-      <c r="B75" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C75" s="240">
-        <v>3009071180.7199998</v>
-      </c>
-      <c r="D75" s="239">
-        <v>4583407497.1300001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="14.5">
-      <c r="A76" s="242" t="s">
-        <v>356</v>
-      </c>
-      <c r="B76" s="245" t="s">
-        <v>284</v>
-      </c>
-      <c r="C76" s="238"/>
-      <c r="D76" s="238"/>
-    </row>
-    <row r="77" spans="1:4" ht="14.5">
-      <c r="A77" s="237" t="s">
-        <v>357</v>
-      </c>
-      <c r="B77" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C77" s="238"/>
-      <c r="D77" s="238"/>
-    </row>
-    <row r="78" spans="1:4" ht="14.5">
-      <c r="A78" s="237" t="s">
-        <v>358</v>
-      </c>
-      <c r="B78" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C78" s="238"/>
-      <c r="D78" s="240">
-        <v>64300000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="14.5">
-      <c r="A79" s="237" t="s">
-        <v>359</v>
-      </c>
-      <c r="B79" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C79" s="238"/>
-      <c r="D79" s="238"/>
-    </row>
-    <row r="80" spans="1:4" ht="14.5">
-      <c r="A80" s="237" t="s">
-        <v>360</v>
-      </c>
-      <c r="B80" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C80" s="238"/>
-      <c r="D80" s="238"/>
-    </row>
-    <row r="81" spans="1:4" ht="14.5">
-      <c r="A81" s="241" t="s">
-        <v>361</v>
-      </c>
-      <c r="B81" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C81" s="238"/>
-      <c r="D81" s="238"/>
-    </row>
-    <row r="82" spans="1:4" ht="14.5">
-      <c r="A82" s="237" t="s">
-        <v>362</v>
-      </c>
-      <c r="B82" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C82" s="238"/>
-      <c r="D82" s="238"/>
-    </row>
-    <row r="83" spans="1:4" ht="14.5">
-      <c r="A83" s="237" t="s">
-        <v>363</v>
-      </c>
-      <c r="B83" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C83" s="238"/>
-      <c r="D83" s="238"/>
-    </row>
-    <row r="84" spans="1:4" ht="14.5">
-      <c r="A84" s="237" t="s">
-        <v>364</v>
-      </c>
-      <c r="B84" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C84" s="238"/>
-      <c r="D84" s="238"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="237" t="s">
-        <v>365</v>
-      </c>
-      <c r="B85" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C85" s="244">
-        <v>8363282.1200000001</v>
-      </c>
-      <c r="D85" s="244">
-        <v>234002.42</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="237" t="s">
-        <v>366</v>
-      </c>
-      <c r="B86" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C86" s="240">
-        <v>67628600.290000007</v>
-      </c>
-      <c r="D86" s="240">
-        <v>73273840.209999993</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="237" t="s">
-        <v>367</v>
-      </c>
-      <c r="B87" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C87" s="244">
-        <v>1455288.83</v>
-      </c>
-      <c r="D87" s="240">
-        <v>5180420.8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="14.5">
-      <c r="A88" s="237" t="s">
-        <v>368</v>
-      </c>
-      <c r="B88" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C88" s="238"/>
-      <c r="D88" s="238"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="248" t="s">
-        <v>369</v>
-      </c>
-      <c r="B89" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C89" s="240">
-        <v>77447171.239999995</v>
-      </c>
-      <c r="D89" s="239">
-        <v>142988263.43000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="249" t="s">
-        <v>370</v>
-      </c>
-      <c r="B90" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C90" s="240">
-        <v>3086518351.96</v>
-      </c>
-      <c r="D90" s="239">
-        <v>4726395760.5600004</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="14.5">
-      <c r="A91" s="242" t="s">
-        <v>371</v>
-      </c>
-      <c r="B91" s="245" t="s">
-        <v>284</v>
-      </c>
-      <c r="C91" s="238"/>
-      <c r="D91" s="238"/>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="237" t="s">
-        <v>372</v>
-      </c>
-      <c r="B92" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C92" s="240">
-        <v>622372316</v>
-      </c>
-      <c r="D92" s="239">
-        <v>623515807</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="14.5">
-      <c r="A93" s="237" t="s">
-        <v>373</v>
-      </c>
-      <c r="B93" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C93" s="238"/>
-      <c r="D93" s="238"/>
-    </row>
-    <row r="94" spans="1:4" ht="14.5">
-      <c r="A94" s="237" t="s">
-        <v>360</v>
-      </c>
-      <c r="B94" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C94" s="238"/>
-      <c r="D94" s="238"/>
-    </row>
-    <row r="95" spans="1:4" ht="14.5">
-      <c r="A95" s="241" t="s">
-        <v>361</v>
-      </c>
-      <c r="B95" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C95" s="238"/>
-      <c r="D95" s="238"/>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="237" t="s">
-        <v>374</v>
-      </c>
-      <c r="B96" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C96" s="240">
-        <v>2078156372.6800001</v>
-      </c>
-      <c r="D96" s="239">
-        <v>2091171752.8900001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="14.5">
-      <c r="A97" s="237" t="s">
-        <v>375</v>
-      </c>
-      <c r="B97" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C97" s="238"/>
-      <c r="D97" s="238"/>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="237" t="s">
-        <v>376</v>
-      </c>
-      <c r="B98" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C98" s="240">
-        <v>-15751238.83</v>
-      </c>
-      <c r="D98" s="240">
-        <v>1508416.92</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="14.5">
-      <c r="A99" s="237" t="s">
-        <v>377</v>
-      </c>
-      <c r="B99" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C99" s="238"/>
-      <c r="D99" s="238"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="237" t="s">
-        <v>378</v>
-      </c>
-      <c r="B100" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C100" s="240">
-        <v>19062040.02</v>
-      </c>
-      <c r="D100" s="240">
-        <v>19062040.02</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="14.5">
-      <c r="A101" s="237" t="s">
-        <v>379</v>
-      </c>
-      <c r="B101" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C101" s="238"/>
-      <c r="D101" s="238"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="237" t="s">
-        <v>380</v>
-      </c>
-      <c r="B102" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C102" s="239">
-        <v>-3172094908.6500001</v>
-      </c>
-      <c r="D102" s="239">
-        <v>-125066537.89</v>
-      </c>
-      <c r="G102" s="250"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="237" t="s">
-        <v>442</v>
-      </c>
-      <c r="B103" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C103" s="246">
-        <v>-468255418.77999997</v>
-      </c>
-      <c r="D103" s="246">
-        <v>2610191478.9400001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="14.5">
-      <c r="A104" s="237" t="s">
-        <v>381</v>
-      </c>
-      <c r="B104" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C104" s="244">
-        <v>-89106.31</v>
-      </c>
-      <c r="D104" s="238"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="242" t="s">
-        <v>443</v>
-      </c>
-      <c r="B105" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C105" s="240">
-        <v>-468344525.08999997</v>
-      </c>
-      <c r="D105" s="239">
-        <v>2610191478.9400001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="242" t="s">
-        <v>444</v>
-      </c>
-      <c r="B106" s="237" t="s">
-        <v>284</v>
-      </c>
-      <c r="C106" s="240">
-        <v>2618173826.8699999</v>
-      </c>
-      <c r="D106" s="239">
+      <c r="D106" s="220">
         <v>7336587239.5</v>
       </c>
     </row>
@@ -6303,24 +6310,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="17.149999999999999" customHeight="1">
-      <c r="B1" s="219" t="s">
+      <c r="B1" s="242" t="s">
         <v>235</v>
       </c>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
       <c r="J1" s="147" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="2" spans="2:29" ht="17.149999999999999" customHeight="1">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="244" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="223"/>
-      <c r="I2" s="215" t="s">
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="246"/>
+      <c r="I2" s="256" t="s">
         <v>122</v>
       </c>
       <c r="J2" s="148" t="s">
@@ -6372,7 +6379,7 @@
         <f>C8/120</f>
         <v>523.95291666666662</v>
       </c>
-      <c r="I3" s="216"/>
+      <c r="I3" s="257"/>
       <c r="J3" s="150" t="s">
         <v>244</v>
       </c>
@@ -6423,30 +6430,30 @@
       <c r="I4" s="152" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="224">
+      <c r="J4" s="247">
         <v>2020</v>
       </c>
-      <c r="K4" s="224"/>
-      <c r="L4" s="224"/>
-      <c r="M4" s="224"/>
-      <c r="N4" s="207">
+      <c r="K4" s="247"/>
+      <c r="L4" s="247"/>
+      <c r="M4" s="247"/>
+      <c r="N4" s="248">
         <v>2021</v>
       </c>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="224">
+      <c r="O4" s="248"/>
+      <c r="P4" s="248"/>
+      <c r="Q4" s="248"/>
+      <c r="R4" s="247">
         <v>2022</v>
       </c>
-      <c r="S4" s="224"/>
-      <c r="T4" s="224"/>
-      <c r="U4" s="224"/>
-      <c r="V4" s="217">
+      <c r="S4" s="247"/>
+      <c r="T4" s="247"/>
+      <c r="U4" s="247"/>
+      <c r="V4" s="258">
         <v>2023</v>
       </c>
-      <c r="W4" s="217"/>
-      <c r="X4" s="217"/>
-      <c r="Y4" s="217"/>
+      <c r="W4" s="258"/>
+      <c r="X4" s="258"/>
+      <c r="Y4" s="258"/>
       <c r="Z4" s="194" t="s">
         <v>128</v>
       </c>
@@ -7801,34 +7808,34 @@
       <c r="I25" s="173" t="s">
         <v>182</v>
       </c>
-      <c r="J25" s="218">
+      <c r="J25" s="259">
         <f>M24</f>
         <v>73857.622543749996</v>
       </c>
-      <c r="K25" s="218"/>
-      <c r="L25" s="218"/>
-      <c r="M25" s="218"/>
-      <c r="N25" s="218">
+      <c r="K25" s="259"/>
+      <c r="L25" s="259"/>
+      <c r="M25" s="259"/>
+      <c r="N25" s="259">
         <f>Q24</f>
         <v>14526.513518749984</v>
       </c>
-      <c r="O25" s="218"/>
-      <c r="P25" s="218"/>
-      <c r="Q25" s="218"/>
-      <c r="R25" s="218">
+      <c r="O25" s="259"/>
+      <c r="P25" s="259"/>
+      <c r="Q25" s="259"/>
+      <c r="R25" s="259">
         <f>U24</f>
         <v>-9797.8202562500119</v>
       </c>
-      <c r="S25" s="218"/>
-      <c r="T25" s="218"/>
-      <c r="U25" s="218"/>
-      <c r="V25" s="218">
+      <c r="S25" s="259"/>
+      <c r="T25" s="259"/>
+      <c r="U25" s="259"/>
+      <c r="V25" s="259">
         <f>Y24</f>
         <v>-2547.200875000015</v>
       </c>
-      <c r="W25" s="218"/>
-      <c r="X25" s="218"/>
-      <c r="Y25" s="218"/>
+      <c r="W25" s="259"/>
+      <c r="X25" s="259"/>
+      <c r="Y25" s="259"/>
       <c r="Z25" s="203"/>
       <c r="AA25" s="199"/>
     </row>
@@ -8034,22 +8041,22 @@
       <c r="K32" s="175"/>
       <c r="L32" s="175"/>
       <c r="M32" s="175"/>
-      <c r="N32" s="208">
+      <c r="N32" s="249">
         <f>J38</f>
         <v>0.13464359540011772</v>
       </c>
-      <c r="O32" s="208"/>
-      <c r="P32" s="208"/>
-      <c r="Q32" s="208"/>
-      <c r="R32" s="208"/>
-      <c r="S32" s="208"/>
-      <c r="T32" s="208"/>
-      <c r="U32" s="208"/>
-      <c r="V32" s="208"/>
-      <c r="W32" s="208"/>
-      <c r="X32" s="208"/>
-      <c r="Y32" s="208"/>
-      <c r="Z32" s="209"/>
+      <c r="O32" s="249"/>
+      <c r="P32" s="249"/>
+      <c r="Q32" s="249"/>
+      <c r="R32" s="249"/>
+      <c r="S32" s="249"/>
+      <c r="T32" s="249"/>
+      <c r="U32" s="249"/>
+      <c r="V32" s="249"/>
+      <c r="W32" s="249"/>
+      <c r="X32" s="249"/>
+      <c r="Y32" s="249"/>
+      <c r="Z32" s="250"/>
       <c r="AA32" s="66"/>
     </row>
     <row r="33" spans="2:26" s="62" customFormat="1">
@@ -8078,22 +8085,22 @@
       <c r="K33" s="177"/>
       <c r="L33" s="177"/>
       <c r="M33" s="177"/>
-      <c r="N33" s="210">
+      <c r="N33" s="251">
         <f>D55/J16</f>
         <v>0.37643646079829907</v>
       </c>
-      <c r="O33" s="210"/>
-      <c r="P33" s="210"/>
-      <c r="Q33" s="210"/>
-      <c r="R33" s="210"/>
-      <c r="S33" s="210"/>
-      <c r="T33" s="210"/>
-      <c r="U33" s="210"/>
-      <c r="V33" s="210"/>
-      <c r="W33" s="210"/>
-      <c r="X33" s="210"/>
-      <c r="Y33" s="210"/>
-      <c r="Z33" s="211"/>
+      <c r="O33" s="251"/>
+      <c r="P33" s="251"/>
+      <c r="Q33" s="251"/>
+      <c r="R33" s="251"/>
+      <c r="S33" s="251"/>
+      <c r="T33" s="251"/>
+      <c r="U33" s="251"/>
+      <c r="V33" s="251"/>
+      <c r="W33" s="251"/>
+      <c r="X33" s="251"/>
+      <c r="Y33" s="251"/>
+      <c r="Z33" s="252"/>
     </row>
     <row r="34" spans="2:26" s="62" customFormat="1">
       <c r="B34" s="91" t="s">
@@ -8428,7 +8435,7 @@
       <c r="Z41" s="66"/>
     </row>
     <row r="42" spans="2:26" s="62" customFormat="1">
-      <c r="B42" s="212" t="s">
+      <c r="B42" s="253" t="s">
         <v>209</v>
       </c>
       <c r="C42" s="119" t="s">
@@ -8478,7 +8485,7 @@
       <c r="Z42" s="66"/>
     </row>
     <row r="43" spans="2:26" s="62" customFormat="1">
-      <c r="B43" s="213"/>
+      <c r="B43" s="254"/>
       <c r="C43" s="122" t="s">
         <v>211</v>
       </c>
@@ -8520,7 +8527,7 @@
       <c r="Z43" s="66"/>
     </row>
     <row r="44" spans="2:26" s="62" customFormat="1">
-      <c r="B44" s="213"/>
+      <c r="B44" s="254"/>
       <c r="C44" s="125" t="s">
         <v>212</v>
       </c>
@@ -8720,7 +8727,7 @@
       <c r="J50" s="66"/>
     </row>
     <row r="51" spans="2:10" s="62" customFormat="1">
-      <c r="B51" s="214" t="s">
+      <c r="B51" s="255" t="s">
         <v>220</v>
       </c>
       <c r="C51" s="129" t="s">
@@ -8737,7 +8744,7 @@
       <c r="J51" s="66"/>
     </row>
     <row r="52" spans="2:10" s="62" customFormat="1">
-      <c r="B52" s="214"/>
+      <c r="B52" s="255"/>
       <c r="C52" s="129" t="s">
         <v>222</v>
       </c>
@@ -8945,11 +8952,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
     <mergeCell ref="N32:Z32"/>
     <mergeCell ref="N33:Z33"/>
     <mergeCell ref="B42:B44"/>
@@ -8960,6 +8962,11 @@
     <mergeCell ref="N25:Q25"/>
     <mergeCell ref="R25:U25"/>
     <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8995,21 +9002,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="241" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="33">
       <c r="A2" s="4" t="s">
@@ -10586,853 +10593,842 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="54.453125" style="225" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" style="226" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="226" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="226" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.453125" style="206" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" style="207" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="207" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" style="207" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="232" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="232" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="251" t="s">
+      <c r="C1" s="232" t="s">
         <v>382</v>
       </c>
-      <c r="D1" s="251" t="s">
+      <c r="D1" s="232" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="210" t="s">
         <v>384</v>
       </c>
-      <c r="B2" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C2" s="253">
+      <c r="B2" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="234">
         <v>1556985105.98</v>
       </c>
-      <c r="D2" s="253">
+      <c r="D2" s="234">
         <v>6759565820.3599997</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="252" t="s">
+      <c r="A3" s="233" t="s">
         <v>385</v>
       </c>
-      <c r="B3" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="253">
+      <c r="B3" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="234">
         <v>1556985105.98</v>
       </c>
-      <c r="D3" s="253">
+      <c r="D3" s="234">
         <v>6759565820.3599997</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.5">
-      <c r="A4" s="254" t="s">
+      <c r="A4" s="235" t="s">
         <v>386</v>
       </c>
-      <c r="B4" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="255"/>
-      <c r="D4" s="255"/>
+      <c r="B4" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="236"/>
+      <c r="D4" s="236"/>
     </row>
     <row r="5" spans="1:4" ht="14.5">
-      <c r="A5" s="254" t="s">
+      <c r="A5" s="235" t="s">
         <v>387</v>
       </c>
-      <c r="B5" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255"/>
+      <c r="B5" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
     </row>
     <row r="6" spans="1:4" ht="14.5">
-      <c r="A6" s="254" t="s">
+      <c r="A6" s="235" t="s">
         <v>388</v>
       </c>
-      <c r="B6" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="255"/>
-      <c r="D6" s="255"/>
+      <c r="B6" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="229" t="s">
+      <c r="A7" s="210" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" s="253">
+      <c r="B7" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="234">
         <v>2043002451.71</v>
       </c>
-      <c r="D7" s="253">
+      <c r="D7" s="234">
         <v>6566582322.6300001</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="252" t="s">
+      <c r="A8" s="233" t="s">
         <v>390</v>
       </c>
-      <c r="B8" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" s="253">
+      <c r="B8" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="234">
         <v>1550744992.3399999</v>
       </c>
-      <c r="D8" s="253">
+      <c r="D8" s="234">
         <v>6116617137.5100002</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.5">
-      <c r="A9" s="254" t="s">
+      <c r="A9" s="235" t="s">
         <v>391</v>
       </c>
-      <c r="B9" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C9" s="255"/>
-      <c r="D9" s="255"/>
+      <c r="B9" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
     </row>
     <row r="10" spans="1:4" ht="14.5">
-      <c r="A10" s="254" t="s">
+      <c r="A10" s="235" t="s">
         <v>392</v>
       </c>
-      <c r="B10" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C10" s="255"/>
-      <c r="D10" s="255"/>
+      <c r="B10" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
     </row>
     <row r="11" spans="1:4" ht="14.5">
-      <c r="A11" s="254" t="s">
+      <c r="A11" s="235" t="s">
         <v>393</v>
       </c>
-      <c r="B11" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C11" s="255"/>
-      <c r="D11" s="255"/>
+      <c r="B11" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="236"/>
+      <c r="D11" s="236"/>
     </row>
     <row r="12" spans="1:4" ht="14.5">
-      <c r="A12" s="254" t="s">
+      <c r="A12" s="235" t="s">
         <v>394</v>
       </c>
-      <c r="B12" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C12" s="255"/>
-      <c r="D12" s="255"/>
+      <c r="B12" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="236"/>
+      <c r="D12" s="236"/>
     </row>
     <row r="13" spans="1:4" ht="14.5">
-      <c r="A13" s="254" t="s">
+      <c r="A13" s="235" t="s">
         <v>395</v>
       </c>
-      <c r="B13" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C13" s="255"/>
-      <c r="D13" s="255"/>
+      <c r="B13" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="236"/>
+      <c r="D13" s="236"/>
     </row>
     <row r="14" spans="1:4" ht="14.5">
-      <c r="A14" s="254" t="s">
+      <c r="A14" s="235" t="s">
         <v>396</v>
       </c>
-      <c r="B14" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C14" s="255"/>
-      <c r="D14" s="255"/>
+      <c r="B14" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="236"/>
+      <c r="D14" s="236"/>
     </row>
     <row r="15" spans="1:4" ht="14.5">
-      <c r="A15" s="254" t="s">
+      <c r="A15" s="235" t="s">
         <v>397</v>
       </c>
-      <c r="B15" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C15" s="255"/>
-      <c r="D15" s="255"/>
+      <c r="B15" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" s="236"/>
+      <c r="D15" s="236"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="254" t="s">
+      <c r="A16" s="235" t="s">
         <v>398</v>
       </c>
-      <c r="B16" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C16" s="253">
+      <c r="B16" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="234">
         <v>11267529.220000001</v>
       </c>
-      <c r="D16" s="253">
+      <c r="D16" s="234">
         <v>21277357.489999998</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="254" t="s">
+      <c r="A17" s="235" t="s">
         <v>399</v>
       </c>
-      <c r="B17" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C17" s="253">
+      <c r="B17" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" s="234">
         <v>50291080.619999997</v>
       </c>
-      <c r="D17" s="253">
+      <c r="D17" s="234">
         <v>44574538.140000001</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="254" t="s">
+      <c r="A18" s="235" t="s">
         <v>400</v>
       </c>
-      <c r="B18" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C18" s="253">
+      <c r="B18" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="234">
         <v>160653154.13</v>
       </c>
-      <c r="D18" s="253">
+      <c r="D18" s="234">
         <v>151242477.75999999</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="254" t="s">
+      <c r="A19" s="235" t="s">
         <v>401</v>
       </c>
-      <c r="B19" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C19" s="253">
+      <c r="B19" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19" s="234">
         <v>133058192.36</v>
       </c>
-      <c r="D19" s="253">
+      <c r="D19" s="234">
         <v>124449915.89</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="254" t="s">
+      <c r="A20" s="235" t="s">
         <v>402</v>
       </c>
-      <c r="B20" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C20" s="253">
+      <c r="B20" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C20" s="234">
         <v>136987503.03999999</v>
       </c>
-      <c r="D20" s="253">
+      <c r="D20" s="234">
         <v>108420895.84</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="254" t="s">
+      <c r="A21" s="235" t="s">
         <v>403</v>
       </c>
-      <c r="B21" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C21" s="253">
+      <c r="B21" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="234">
         <v>148310424.03999999</v>
       </c>
-      <c r="D21" s="253">
+      <c r="D21" s="234">
         <v>145541924.84</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="254" t="s">
+      <c r="A22" s="235" t="s">
         <v>386</v>
       </c>
-      <c r="B22" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C22" s="253">
+      <c r="B22" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C22" s="234">
         <v>14889300</v>
       </c>
-      <c r="D22" s="253">
+      <c r="D22" s="234">
         <v>13039887.66</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="252" t="s">
+      <c r="A23" s="233" t="s">
         <v>404</v>
       </c>
-      <c r="B23" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C23" s="253">
+      <c r="B23" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="234">
         <v>31947302.16</v>
       </c>
-      <c r="D23" s="253">
+      <c r="D23" s="234">
         <v>83798457.420000002</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="254" t="s">
+      <c r="A24" s="235" t="s">
         <v>405</v>
       </c>
-      <c r="B24" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C24" s="253">
+      <c r="B24" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="234">
         <v>834590.36</v>
       </c>
-      <c r="D24" s="253">
+      <c r="D24" s="234">
         <v>3551950.26</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="252" t="s">
+      <c r="A25" s="233" t="s">
+        <v>443</v>
+      </c>
+      <c r="B25" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="234">
+        <v>834590.36</v>
+      </c>
+      <c r="D25" s="234">
+        <v>1875733.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14" customHeight="1">
+      <c r="A26" s="233" t="s">
+        <v>456</v>
+      </c>
+      <c r="B26" s="239" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="237"/>
+      <c r="D26" s="237"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.5">
+      <c r="A27" s="235" t="s">
+        <v>406</v>
+      </c>
+      <c r="B27" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C27" s="236"/>
+      <c r="D27" s="236"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.5">
+      <c r="A28" s="235" t="s">
+        <v>407</v>
+      </c>
+      <c r="B28" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C28" s="236"/>
+      <c r="D28" s="236"/>
+    </row>
+    <row r="29" spans="1:4" ht="14" customHeight="1">
+      <c r="A29" s="233" t="s">
+        <v>444</v>
+      </c>
+      <c r="B29" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C29" s="234">
+        <v>-7564379.4900000002</v>
+      </c>
+      <c r="D29" s="236"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.5">
+      <c r="A30" s="235" t="s">
+        <v>408</v>
+      </c>
+      <c r="B30" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" s="234">
+        <v>-209517117.19999999</v>
+      </c>
+      <c r="D30" s="236"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="235" t="s">
+        <v>409</v>
+      </c>
+      <c r="B31" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" s="234">
+        <v>-2403205485.5900002</v>
+      </c>
+      <c r="D31" s="234">
+        <v>-492789569.94999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="235" t="s">
+        <v>410</v>
+      </c>
+      <c r="B32" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" s="234">
+        <v>-43943.58</v>
+      </c>
+      <c r="D32" s="234">
+        <v>74397.88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="210" t="s">
+        <v>411</v>
+      </c>
+      <c r="B33" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C33" s="234">
+        <v>-3073566379.0700002</v>
+      </c>
+      <c r="D33" s="234">
+        <v>-212381266.66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="233" t="s">
+        <v>412</v>
+      </c>
+      <c r="B34" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" s="234">
+        <v>14306304.34</v>
+      </c>
+      <c r="D34" s="234">
+        <v>513651.81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="233" t="s">
+        <v>413</v>
+      </c>
+      <c r="B35" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C35" s="234">
+        <v>23968132.079999998</v>
+      </c>
+      <c r="D35" s="234">
+        <v>1113558.0900000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="210" t="s">
+        <v>414</v>
+      </c>
+      <c r="B36" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C36" s="234">
+        <v>-3083228206.8099999</v>
+      </c>
+      <c r="D36" s="234">
+        <v>-212981172.94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="233" t="s">
+        <v>415</v>
+      </c>
+      <c r="B37" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C37" s="234">
+        <v>-36110729.740000002</v>
+      </c>
+      <c r="D37" s="234">
+        <v>54174557.439999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="210" t="s">
+        <v>416</v>
+      </c>
+      <c r="B38" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C38" s="234">
+        <v>-3047117477.0700002</v>
+      </c>
+      <c r="D38" s="234">
+        <v>-267155730.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="260" t="s">
+        <v>417</v>
+      </c>
+      <c r="B39" s="260"/>
+      <c r="C39" s="260"/>
+      <c r="D39" s="260"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="233" t="s">
         <v>445</v>
       </c>
-      <c r="B25" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C25" s="253">
-        <v>834590.36</v>
-      </c>
-      <c r="D25" s="253">
-        <v>1875733.16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="252" t="s">
-        <v>406</v>
-      </c>
-      <c r="B26" s="259" t="s">
-        <v>284</v>
-      </c>
-      <c r="C26" s="257"/>
-      <c r="D26" s="257"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="252" t="s">
-        <v>407</v>
-      </c>
-      <c r="B27" s="259"/>
-      <c r="C27" s="257"/>
-      <c r="D27" s="257"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.5">
-      <c r="A28" s="254" t="s">
-        <v>408</v>
-      </c>
-      <c r="B28" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C28" s="255"/>
-      <c r="D28" s="255"/>
-    </row>
-    <row r="29" spans="1:4" ht="14.5">
-      <c r="A29" s="254" t="s">
-        <v>409</v>
-      </c>
-      <c r="B29" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C29" s="255"/>
-      <c r="D29" s="255"/>
-    </row>
-    <row r="30" spans="1:4" ht="14" customHeight="1">
-      <c r="A30" s="252" t="s">
+      <c r="B40" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C40" s="234">
+        <v>-3047092689.23</v>
+      </c>
+      <c r="D40" s="234">
+        <v>-267155730.38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="14" customHeight="1">
+      <c r="A41" s="233" t="s">
         <v>446</v>
       </c>
-      <c r="B30" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C30" s="253">
-        <v>-7564379.4900000002</v>
-      </c>
-      <c r="D30" s="255"/>
-    </row>
-    <row r="31" spans="1:4" ht="14.5">
-      <c r="A31" s="254" t="s">
-        <v>410</v>
-      </c>
-      <c r="B31" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C31" s="253">
-        <v>-209517117.19999999</v>
-      </c>
-      <c r="D31" s="255"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="254" t="s">
-        <v>411</v>
-      </c>
-      <c r="B32" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C32" s="253">
-        <v>-2403205485.5900002</v>
-      </c>
-      <c r="D32" s="253">
-        <v>-492789569.94999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="254" t="s">
-        <v>412</v>
-      </c>
-      <c r="B33" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C33" s="253">
-        <v>-43943.58</v>
-      </c>
-      <c r="D33" s="253">
-        <v>74397.88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="229" t="s">
-        <v>413</v>
-      </c>
-      <c r="B34" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C34" s="253">
-        <v>-3073566379.0700002</v>
-      </c>
-      <c r="D34" s="253">
-        <v>-212381266.66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="252" t="s">
-        <v>414</v>
-      </c>
-      <c r="B35" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C35" s="253">
-        <v>14306304.34</v>
-      </c>
-      <c r="D35" s="253">
-        <v>513651.81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="252" t="s">
-        <v>415</v>
-      </c>
-      <c r="B36" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C36" s="253">
-        <v>23968132.079999998</v>
-      </c>
-      <c r="D36" s="253">
-        <v>1113558.0900000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="229" t="s">
-        <v>416</v>
-      </c>
-      <c r="B37" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C37" s="253">
-        <v>-3083228206.8099999</v>
-      </c>
-      <c r="D37" s="253">
-        <v>-212981172.94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="252" t="s">
-        <v>417</v>
-      </c>
-      <c r="B38" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C38" s="253">
-        <v>-36110729.740000002</v>
-      </c>
-      <c r="D38" s="253">
-        <v>54174557.439999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="229" t="s">
+      <c r="B41" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C41" s="234">
+        <v>-24787.84</v>
+      </c>
+      <c r="D41" s="236"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="260" t="s">
         <v>418</v>
       </c>
-      <c r="B39" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C39" s="253">
-        <v>-3047117477.0700002</v>
-      </c>
-      <c r="D39" s="253">
+      <c r="B42" s="260"/>
+      <c r="C42" s="260"/>
+      <c r="D42" s="260"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="233" t="s">
+        <v>447</v>
+      </c>
+      <c r="B43" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43" s="234">
+        <v>-3047028370.7600002</v>
+      </c>
+      <c r="D43" s="234">
         <v>-267155730.38</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="256" t="s">
+    <row r="44" spans="1:4" ht="14.5">
+      <c r="A44" s="235" t="s">
         <v>419</v>
       </c>
-      <c r="B40" s="256"/>
-      <c r="C40" s="256"/>
-      <c r="D40" s="256"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="252" t="s">
-        <v>447</v>
-      </c>
-      <c r="B41" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C41" s="253">
-        <v>-3047092689.23</v>
-      </c>
-      <c r="D41" s="253">
-        <v>-267155730.38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="14" customHeight="1">
-      <c r="A42" s="252" t="s">
+      <c r="B44" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C44" s="234">
+        <v>-89106.31</v>
+      </c>
+      <c r="D44" s="236"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="210" t="s">
+        <v>420</v>
+      </c>
+      <c r="B45" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C45" s="234">
+        <v>-17259655.75</v>
+      </c>
+      <c r="D45" s="234">
+        <v>2563206.29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="233" t="s">
         <v>448</v>
       </c>
-      <c r="B42" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C42" s="253">
-        <v>-24787.84</v>
-      </c>
-      <c r="D42" s="255"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="256" t="s">
-        <v>420</v>
-      </c>
-      <c r="B43" s="256"/>
-      <c r="C43" s="256"/>
-      <c r="D43" s="256"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="252" t="s">
+      <c r="B46" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C46" s="234">
+        <v>-17259655.75</v>
+      </c>
+      <c r="D46" s="234">
+        <v>2563206.29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="14.5">
+      <c r="A47" s="235" t="s">
+        <v>421</v>
+      </c>
+      <c r="B47" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" s="236"/>
+      <c r="D47" s="236"/>
+    </row>
+    <row r="48" spans="1:4" ht="14.5">
+      <c r="A48" s="233" t="s">
+        <v>422</v>
+      </c>
+      <c r="B48" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C48" s="236"/>
+      <c r="D48" s="236"/>
+    </row>
+    <row r="49" spans="1:4" ht="14.5">
+      <c r="A49" s="233" t="s">
+        <v>423</v>
+      </c>
+      <c r="B49" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C49" s="236"/>
+      <c r="D49" s="236"/>
+    </row>
+    <row r="50" spans="1:4" ht="14.5">
+      <c r="A50" s="233" t="s">
+        <v>424</v>
+      </c>
+      <c r="B50" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C50" s="236"/>
+      <c r="D50" s="236"/>
+    </row>
+    <row r="51" spans="1:4" ht="14.5">
+      <c r="A51" s="233" t="s">
+        <v>425</v>
+      </c>
+      <c r="B51" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C51" s="236"/>
+      <c r="D51" s="236"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="235" t="s">
+        <v>426</v>
+      </c>
+      <c r="B52" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C52" s="234">
+        <v>-17259655.75</v>
+      </c>
+      <c r="D52" s="234">
+        <v>2563206.29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="14.5">
+      <c r="A53" s="233" t="s">
+        <v>427</v>
+      </c>
+      <c r="B53" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C53" s="236"/>
+      <c r="D53" s="236"/>
+    </row>
+    <row r="54" spans="1:4" ht="14.5">
+      <c r="A54" s="233" t="s">
+        <v>428</v>
+      </c>
+      <c r="B54" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C54" s="236"/>
+      <c r="D54" s="236"/>
+    </row>
+    <row r="55" spans="1:4" ht="14.5">
+      <c r="A55" s="233" t="s">
+        <v>429</v>
+      </c>
+      <c r="B55" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C55" s="236"/>
+      <c r="D55" s="236"/>
+    </row>
+    <row r="56" spans="1:4" ht="14" customHeight="1">
+      <c r="A56" s="233" t="s">
         <v>449</v>
       </c>
-      <c r="B44" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C44" s="253">
-        <v>-3047028370.7600002</v>
-      </c>
-      <c r="D44" s="253">
-        <v>-267155730.38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="14.5">
-      <c r="A45" s="254" t="s">
-        <v>421</v>
-      </c>
-      <c r="B45" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C45" s="253">
+      <c r="B56" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C56" s="236"/>
+      <c r="D56" s="236"/>
+    </row>
+    <row r="57" spans="1:4" ht="14" customHeight="1">
+      <c r="A57" s="233" t="s">
+        <v>450</v>
+      </c>
+      <c r="B57" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C57" s="236"/>
+      <c r="D57" s="236"/>
+    </row>
+    <row r="58" spans="1:4" ht="14.5">
+      <c r="A58" s="233" t="s">
+        <v>430</v>
+      </c>
+      <c r="B58" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C58" s="236"/>
+      <c r="D58" s="236"/>
+    </row>
+    <row r="59" spans="1:4" ht="14.5">
+      <c r="A59" s="233" t="s">
+        <v>451</v>
+      </c>
+      <c r="B59" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" s="236"/>
+      <c r="D59" s="236"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="233" t="s">
+        <v>431</v>
+      </c>
+      <c r="B60" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C60" s="234">
+        <v>-17259655.75</v>
+      </c>
+      <c r="D60" s="234">
+        <v>2563206.29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="14.5">
+      <c r="A61" s="233" t="s">
+        <v>432</v>
+      </c>
+      <c r="B61" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C61" s="236"/>
+      <c r="D61" s="236"/>
+    </row>
+    <row r="62" spans="1:4" ht="14" customHeight="1">
+      <c r="A62" s="233" t="s">
+        <v>452</v>
+      </c>
+      <c r="B62" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C62" s="236"/>
+      <c r="D62" s="236"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="210" t="s">
+        <v>433</v>
+      </c>
+      <c r="B63" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C63" s="234">
+        <v>-3064377132.8200002</v>
+      </c>
+      <c r="D63" s="234">
+        <v>-264592524.09</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="233" t="s">
+        <v>453</v>
+      </c>
+      <c r="B64" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C64" s="234">
+        <v>-3064288026.5100002</v>
+      </c>
+      <c r="D64" s="234">
+        <v>-264592524.09</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="14.5">
+      <c r="A65" s="233" t="s">
+        <v>434</v>
+      </c>
+      <c r="B65" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C65" s="234">
         <v>-89106.31</v>
       </c>
-      <c r="D45" s="255"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="229" t="s">
-        <v>422</v>
-      </c>
-      <c r="B46" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C46" s="253">
-        <v>-17259655.75</v>
-      </c>
-      <c r="D46" s="253">
-        <v>2563206.29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="252" t="s">
-        <v>450</v>
-      </c>
-      <c r="B47" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C47" s="253">
-        <v>-17259655.75</v>
-      </c>
-      <c r="D47" s="253">
-        <v>2563206.29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="14.5">
-      <c r="A48" s="254" t="s">
-        <v>423</v>
-      </c>
-      <c r="B48" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C48" s="255"/>
-      <c r="D48" s="255"/>
-    </row>
-    <row r="49" spans="1:4" ht="14.5">
-      <c r="A49" s="252" t="s">
-        <v>424</v>
-      </c>
-      <c r="B49" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C49" s="255"/>
-      <c r="D49" s="255"/>
-    </row>
-    <row r="50" spans="1:4" ht="14.5">
-      <c r="A50" s="252" t="s">
-        <v>425</v>
-      </c>
-      <c r="B50" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C50" s="255"/>
-      <c r="D50" s="255"/>
-    </row>
-    <row r="51" spans="1:4" ht="14.5">
-      <c r="A51" s="252" t="s">
-        <v>426</v>
-      </c>
-      <c r="B51" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C51" s="255"/>
-      <c r="D51" s="255"/>
-    </row>
-    <row r="52" spans="1:4" ht="14.5">
-      <c r="A52" s="252" t="s">
-        <v>427</v>
-      </c>
-      <c r="B52" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C52" s="255"/>
-      <c r="D52" s="255"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="254" t="s">
-        <v>428</v>
-      </c>
-      <c r="B53" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C53" s="253">
-        <v>-17259655.75</v>
-      </c>
-      <c r="D53" s="253">
-        <v>2563206.29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="14.5">
-      <c r="A54" s="252" t="s">
-        <v>429</v>
-      </c>
-      <c r="B54" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C54" s="255"/>
-      <c r="D54" s="255"/>
-    </row>
-    <row r="55" spans="1:4" ht="14.5">
-      <c r="A55" s="252" t="s">
-        <v>430</v>
-      </c>
-      <c r="B55" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C55" s="255"/>
-      <c r="D55" s="255"/>
-    </row>
-    <row r="56" spans="1:4" ht="14.5">
-      <c r="A56" s="252" t="s">
-        <v>431</v>
-      </c>
-      <c r="B56" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C56" s="255"/>
-      <c r="D56" s="255"/>
-    </row>
-    <row r="57" spans="1:4" ht="14" customHeight="1">
-      <c r="A57" s="252" t="s">
-        <v>451</v>
-      </c>
-      <c r="B57" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C57" s="255"/>
-      <c r="D57" s="255"/>
-    </row>
-    <row r="58" spans="1:4" ht="14" customHeight="1">
-      <c r="A58" s="252" t="s">
-        <v>452</v>
-      </c>
-      <c r="B58" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C58" s="255"/>
-      <c r="D58" s="255"/>
-    </row>
-    <row r="59" spans="1:4" ht="14.5">
-      <c r="A59" s="252" t="s">
-        <v>432</v>
-      </c>
-      <c r="B59" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C59" s="255"/>
-      <c r="D59" s="255"/>
-    </row>
-    <row r="60" spans="1:4" ht="14.5">
-      <c r="A60" s="252" t="s">
-        <v>453</v>
-      </c>
-      <c r="B60" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C60" s="255"/>
-      <c r="D60" s="255"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="252" t="s">
-        <v>433</v>
-      </c>
-      <c r="B61" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C61" s="253">
-        <v>-17259655.75</v>
-      </c>
-      <c r="D61" s="253">
-        <v>2563206.29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="14.5">
-      <c r="A62" s="252" t="s">
-        <v>434</v>
-      </c>
-      <c r="B62" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C62" s="255"/>
-      <c r="D62" s="255"/>
-    </row>
-    <row r="63" spans="1:4" ht="14" customHeight="1">
-      <c r="A63" s="252" t="s">
-        <v>454</v>
-      </c>
-      <c r="B63" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C63" s="255"/>
-      <c r="D63" s="255"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="229" t="s">
+      <c r="D65" s="236"/>
+    </row>
+    <row r="66" spans="1:4" ht="14.5">
+      <c r="A66" s="210" t="s">
         <v>435</v>
       </c>
-      <c r="B64" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C64" s="253">
-        <v>-3064377132.8200002</v>
-      </c>
-      <c r="D64" s="253">
-        <v>-264592524.09</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="252" t="s">
-        <v>455</v>
-      </c>
-      <c r="B65" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C65" s="253">
-        <v>-3064288026.5100002</v>
-      </c>
-      <c r="D65" s="253">
-        <v>-264592524.09</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="14.5">
-      <c r="A66" s="252" t="s">
+      <c r="B66" s="240" t="s">
+        <v>284</v>
+      </c>
+      <c r="C66" s="236"/>
+      <c r="D66" s="236"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="233" t="s">
         <v>436</v>
       </c>
-      <c r="B66" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C66" s="253">
-        <v>-89106.31</v>
-      </c>
-      <c r="D66" s="255"/>
-    </row>
-    <row r="67" spans="1:4" ht="14.5">
-      <c r="A67" s="229" t="s">
+      <c r="B67" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C67" s="234">
+        <v>-4.8906000000000001</v>
+      </c>
+      <c r="D67" s="234">
+        <v>-0.42849999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="233" t="s">
         <v>437</v>
       </c>
-      <c r="B67" s="260" t="s">
-        <v>284</v>
-      </c>
-      <c r="C67" s="255"/>
-      <c r="D67" s="255"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="252" t="s">
-        <v>438</v>
-      </c>
-      <c r="B68" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C68" s="253">
+      <c r="B68" s="238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C68" s="234">
         <v>-4.8906000000000001</v>
       </c>
-      <c r="D68" s="253">
+      <c r="D68" s="234">
         <v>-0.42849999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="252" t="s">
-        <v>439</v>
-      </c>
-      <c r="B69" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="C69" s="253">
-        <v>-4.8906000000000001</v>
-      </c>
-      <c r="D69" s="253">
-        <v>-0.42849999999999999</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
+  <mergeCells count="2">
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A39:D39"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/600734.xlsx
+++ b/600734.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\工作资料\Private\Private\openpyxl\009 使用配置文件计算财务比率\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\PythonWithOpenpyxl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="现金流计划" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="资产负债表" sheetId="9" r:id="rId2"/>
+    <sheet name="资产负债表" sheetId="11" r:id="rId2"/>
     <sheet name="zx16b" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="利润表" sheetId="10" r:id="rId5"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="449">
   <si>
     <t>瑞安10-12地块资金运营计划表（万元）</t>
   </si>
@@ -1336,15 +1336,6 @@
     <t xml:space="preserve">卖出回购金融资产款 </t>
   </si>
   <si>
-    <t xml:space="preserve">吸收存款及同业存放 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">代理买卖证券款 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">代理承销证券款 </t>
-  </si>
-  <si>
     <t xml:space="preserve">应付职工薪酬 </t>
   </si>
   <si>
@@ -1399,22 +1390,10 @@
     <t xml:space="preserve">长期借款 </t>
   </si>
   <si>
-    <t xml:space="preserve">应付债券 </t>
-  </si>
-  <si>
     <t xml:space="preserve">其中：优先股 </t>
   </si>
   <si>
     <t xml:space="preserve">永续债 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">租赁负债 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">长期应付款 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">长期应付职工薪酬 </t>
   </si>
   <si>
     <t xml:space="preserve">预计负债 </t>
@@ -1552,6 +1531,12 @@
     <t xml:space="preserve">投资收益（损失以“－”号填列） </t>
   </si>
   <si>
+    <t>以摊余成本计量的金融资产终</t>
+  </si>
+  <si>
+    <t xml:space="preserve">止确认收益 </t>
+  </si>
+  <si>
     <t xml:space="preserve">汇兑收益（损失以“－”号填列） </t>
   </si>
   <si>
@@ -1709,18 +1694,6 @@
   </si>
   <si>
     <t xml:space="preserve">（一）归属于母公司所有者的综合收益总额 </t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>附注</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">以摊余成本计量的金融资产终止确认收益 </t>
     <phoneticPr fontId="38" type="noConversion"/>
   </si>
 </sst>
@@ -2354,7 +2327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2965,24 +2938,6 @@
     <xf numFmtId="43" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2992,9 +2947,6 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="41" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3010,77 +2962,83 @@
     <xf numFmtId="43" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="45" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="45" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3422,21 +3380,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="33">
       <c r="A2" s="4" t="s">
@@ -4997,37 +4955,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" style="206" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1796875" style="206" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="25.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="208" t="s">
-        <v>455</v>
+        <v>279</v>
       </c>
       <c r="B1" s="208" t="s">
-        <v>454</v>
-      </c>
-      <c r="C1" s="232" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="225" t="s">
         <v>281</v>
       </c>
-      <c r="D1" s="232" t="s">
+      <c r="D1" s="225" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="208" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" s="208" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="225" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" s="225" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.5">
       <c r="A2" s="209" t="s">
         <v>283</v>
       </c>
@@ -5040,8 +5011,16 @@
       <c r="D2" s="212" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="209" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="232" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="213" t="s">
         <v>285</v>
       </c>
@@ -5054,8 +5033,20 @@
       <c r="D3" s="214">
         <v>299366263.52999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.5">
+      <c r="E3" s="213" t="s">
+        <v>332</v>
+      </c>
+      <c r="F3" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" s="214">
+        <v>1709073009.52</v>
+      </c>
+      <c r="H3" s="214">
+        <v>1041619581.4400001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.5">
       <c r="A4" s="213" t="s">
         <v>286</v>
       </c>
@@ -5064,8 +5055,16 @@
       </c>
       <c r="C4" s="215"/>
       <c r="D4" s="215"/>
-    </row>
-    <row r="5" spans="1:4" ht="14.5">
+      <c r="E4" s="213" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.5">
       <c r="A5" s="213" t="s">
         <v>287</v>
       </c>
@@ -5074,8 +5073,16 @@
       </c>
       <c r="C5" s="215"/>
       <c r="D5" s="215"/>
-    </row>
-    <row r="6" spans="1:4" ht="14.5">
+      <c r="E5" s="213" t="s">
+        <v>334</v>
+      </c>
+      <c r="F5" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G5" s="215"/>
+      <c r="H5" s="215"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.5">
       <c r="A6" s="213" t="s">
         <v>288</v>
       </c>
@@ -5084,18 +5091,34 @@
       </c>
       <c r="C6" s="215"/>
       <c r="D6" s="215"/>
-    </row>
-    <row r="7" spans="1:4" ht="14" customHeight="1">
+      <c r="E6" s="213" t="s">
+        <v>335</v>
+      </c>
+      <c r="F6" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G6" s="215"/>
+      <c r="H6" s="215"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.5">
       <c r="A7" s="213" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B7" s="213" t="s">
         <v>284</v>
       </c>
       <c r="C7" s="215"/>
       <c r="D7" s="215"/>
-    </row>
-    <row r="8" spans="1:4" ht="14.5">
+      <c r="E7" s="213" t="s">
+        <v>434</v>
+      </c>
+      <c r="F7" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="215"/>
+      <c r="H7" s="215"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.5">
       <c r="A8" s="213" t="s">
         <v>289</v>
       </c>
@@ -5104,8 +5127,16 @@
       </c>
       <c r="C8" s="215"/>
       <c r="D8" s="215"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="213" t="s">
+        <v>336</v>
+      </c>
+      <c r="F8" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G8" s="215"/>
+      <c r="H8" s="215"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="213" t="s">
         <v>290</v>
       </c>
@@ -5118,8 +5149,20 @@
       <c r="D9" s="214">
         <v>112193052.92</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="213" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G9" s="214">
+        <v>96304716.090000004</v>
+      </c>
+      <c r="H9" s="214">
+        <v>187800568.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="213" t="s">
         <v>291</v>
       </c>
@@ -5132,8 +5175,20 @@
       <c r="D10" s="214">
         <v>3373979906.9299998</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.5">
+      <c r="E10" s="213" t="s">
+        <v>338</v>
+      </c>
+      <c r="F10" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G10" s="214">
+        <v>601836796.69000006</v>
+      </c>
+      <c r="H10" s="214">
+        <v>2145733057.4400001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.5">
       <c r="A11" s="213" t="s">
         <v>292</v>
       </c>
@@ -5142,8 +5197,20 @@
       </c>
       <c r="C11" s="215"/>
       <c r="D11" s="215"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="213" t="s">
+        <v>339</v>
+      </c>
+      <c r="F11" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G11" s="214">
+        <v>202883386.56</v>
+      </c>
+      <c r="H11" s="214">
+        <v>270065963.33999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.5">
       <c r="A12" s="213" t="s">
         <v>293</v>
       </c>
@@ -5156,8 +5223,16 @@
       <c r="D12" s="214">
         <v>667469447.53999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.5">
+      <c r="E12" s="213" t="s">
+        <v>340</v>
+      </c>
+      <c r="F12" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G12" s="215"/>
+      <c r="H12" s="215"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.5">
       <c r="A13" s="213" t="s">
         <v>294</v>
       </c>
@@ -5166,8 +5241,16 @@
       </c>
       <c r="C13" s="215"/>
       <c r="D13" s="215"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.5">
+      <c r="E13" s="213" t="s">
+        <v>341</v>
+      </c>
+      <c r="F13" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="215"/>
+      <c r="H13" s="215"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.5">
       <c r="A14" s="213" t="s">
         <v>295</v>
       </c>
@@ -5176,8 +5259,20 @@
       </c>
       <c r="C14" s="215"/>
       <c r="D14" s="215"/>
-    </row>
-    <row r="15" spans="1:4" ht="14.5">
+      <c r="E14" s="213" t="s">
+        <v>342</v>
+      </c>
+      <c r="F14" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G14" s="214">
+        <v>35745466.630000003</v>
+      </c>
+      <c r="H14" s="214">
+        <v>28742985.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.5">
       <c r="A15" s="213" t="s">
         <v>296</v>
       </c>
@@ -5186,8 +5281,20 @@
       </c>
       <c r="C15" s="215"/>
       <c r="D15" s="215"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="213" t="s">
+        <v>343</v>
+      </c>
+      <c r="F15" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G15" s="214">
+        <v>32404706.449999999</v>
+      </c>
+      <c r="H15" s="214">
+        <v>185342945.19999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="213" t="s">
         <v>297</v>
       </c>
@@ -5200,8 +5307,20 @@
       <c r="D16" s="214">
         <v>71645789.430000007</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.5">
+      <c r="E16" s="213" t="s">
+        <v>344</v>
+      </c>
+      <c r="F16" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G16" s="214">
+        <v>261293127.62</v>
+      </c>
+      <c r="H16" s="214">
+        <v>128131691.98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.5">
       <c r="A17" s="213" t="s">
         <v>298</v>
       </c>
@@ -5210,8 +5329,20 @@
       </c>
       <c r="C17" s="215"/>
       <c r="D17" s="215"/>
-    </row>
-    <row r="18" spans="1:4" ht="14.5">
+      <c r="E17" s="213" t="s">
+        <v>345</v>
+      </c>
+      <c r="F17" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="214">
+        <v>34053494.630000003</v>
+      </c>
+      <c r="H17" s="214">
+        <v>7516092.2599999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.5">
       <c r="A18" s="216" t="s">
         <v>299</v>
       </c>
@@ -5220,8 +5351,20 @@
       </c>
       <c r="C18" s="215"/>
       <c r="D18" s="215"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.5">
+      <c r="E18" s="216" t="s">
+        <v>346</v>
+      </c>
+      <c r="F18" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G18" s="214">
+        <v>240900</v>
+      </c>
+      <c r="H18" s="214">
+        <v>240900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.5">
       <c r="A19" s="213" t="s">
         <v>300</v>
       </c>
@@ -5230,8 +5373,16 @@
       </c>
       <c r="C19" s="215"/>
       <c r="D19" s="215"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="213" t="s">
+        <v>347</v>
+      </c>
+      <c r="F19" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G19" s="215"/>
+      <c r="H19" s="215"/>
+    </row>
+    <row r="20" spans="1:8" ht="14.5">
       <c r="A20" s="213" t="s">
         <v>301</v>
       </c>
@@ -5244,8 +5395,16 @@
       <c r="D20" s="214">
         <v>775275984.23000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.5">
+      <c r="E20" s="213" t="s">
+        <v>348</v>
+      </c>
+      <c r="F20" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G20" s="215"/>
+      <c r="H20" s="215"/>
+    </row>
+    <row r="21" spans="1:8" ht="14.5">
       <c r="A21" s="213" t="s">
         <v>302</v>
       </c>
@@ -5254,8 +5413,16 @@
       </c>
       <c r="C21" s="215"/>
       <c r="D21" s="215"/>
-    </row>
-    <row r="22" spans="1:4" ht="14.5">
+      <c r="E21" s="213" t="s">
+        <v>349</v>
+      </c>
+      <c r="F21" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G21" s="215"/>
+      <c r="H21" s="215"/>
+    </row>
+    <row r="22" spans="1:8" ht="14.5">
       <c r="A22" s="213" t="s">
         <v>303</v>
       </c>
@@ -5264,8 +5431,20 @@
       </c>
       <c r="C22" s="215"/>
       <c r="D22" s="215"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="213" t="s">
+        <v>350</v>
+      </c>
+      <c r="F22" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G22" s="214">
+        <v>29432656.32</v>
+      </c>
+      <c r="H22" s="214">
+        <v>595970703.59000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.5">
       <c r="A23" s="213" t="s">
         <v>304</v>
       </c>
@@ -5278,8 +5457,18 @@
       <c r="D23" s="214">
         <v>20841605.16</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="213" t="s">
+        <v>351</v>
+      </c>
+      <c r="F23" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G23" s="214">
+        <v>40097314.840000004</v>
+      </c>
+      <c r="H23" s="215"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="213" t="s">
         <v>305</v>
       </c>
@@ -5292,9 +5481,21 @@
       <c r="D24" s="214">
         <v>6437498.0899999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="228" t="s">
+      <c r="E24" s="222" t="s">
+        <v>352</v>
+      </c>
+      <c r="F24" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G24" s="214">
+        <v>3009071180.7199998</v>
+      </c>
+      <c r="H24" s="214">
+        <v>4583407497.1300001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.5">
+      <c r="A25" s="222" t="s">
         <v>306</v>
       </c>
       <c r="B25" s="213" t="s">
@@ -5306,8 +5507,16 @@
       <c r="D25" s="214">
         <v>5327209547.8299999</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="14.5">
+      <c r="E25" s="209" t="s">
+        <v>353</v>
+      </c>
+      <c r="F25" s="217" t="s">
+        <v>284</v>
+      </c>
+      <c r="G25" s="215"/>
+      <c r="H25" s="215"/>
+    </row>
+    <row r="26" spans="1:8" ht="14.5">
       <c r="A26" s="209" t="s">
         <v>307</v>
       </c>
@@ -5316,8 +5525,16 @@
       </c>
       <c r="C26" s="215"/>
       <c r="D26" s="215"/>
-    </row>
-    <row r="27" spans="1:4" ht="14.5">
+      <c r="E26" s="213" t="s">
+        <v>354</v>
+      </c>
+      <c r="F26" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G26" s="215"/>
+      <c r="H26" s="215"/>
+    </row>
+    <row r="27" spans="1:8" ht="14.5">
       <c r="A27" s="213" t="s">
         <v>308</v>
       </c>
@@ -5326,8 +5543,18 @@
       </c>
       <c r="C27" s="215"/>
       <c r="D27" s="215"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.5">
+      <c r="E27" s="213" t="s">
+        <v>355</v>
+      </c>
+      <c r="F27" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G27" s="215"/>
+      <c r="H27" s="214">
+        <v>64300000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.5">
       <c r="A28" s="213" t="s">
         <v>309</v>
       </c>
@@ -5336,8 +5563,20 @@
       </c>
       <c r="C28" s="215"/>
       <c r="D28" s="215"/>
-    </row>
-    <row r="29" spans="1:4" ht="14.5">
+      <c r="E28" s="213" t="s">
+        <v>358</v>
+      </c>
+      <c r="F28" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G28" s="214">
+        <v>8363282.1200000001</v>
+      </c>
+      <c r="H28" s="214">
+        <v>234002.42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.5">
       <c r="A29" s="213" t="s">
         <v>310</v>
       </c>
@@ -5348,8 +5587,20 @@
       <c r="D29" s="214">
         <v>23677731.899999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="14.5">
+      <c r="E29" s="213" t="s">
+        <v>359</v>
+      </c>
+      <c r="F29" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G29" s="214">
+        <v>67628600.290000007</v>
+      </c>
+      <c r="H29" s="214">
+        <v>73273840.209999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.5">
       <c r="A30" s="213" t="s">
         <v>311</v>
       </c>
@@ -5358,8 +5609,20 @@
       </c>
       <c r="C30" s="215"/>
       <c r="D30" s="215"/>
-    </row>
-    <row r="31" spans="1:4" ht="14.5">
+      <c r="E30" s="213" t="s">
+        <v>360</v>
+      </c>
+      <c r="F30" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G30" s="214">
+        <v>1455288.83</v>
+      </c>
+      <c r="H30" s="214">
+        <v>5180420.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.5">
       <c r="A31" s="213" t="s">
         <v>312</v>
       </c>
@@ -5368,8 +5631,16 @@
       </c>
       <c r="C31" s="215"/>
       <c r="D31" s="215"/>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="213" t="s">
+        <v>361</v>
+      </c>
+      <c r="F31" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G31" s="215"/>
+      <c r="H31" s="215"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="213" t="s">
         <v>313</v>
       </c>
@@ -5382,8 +5653,20 @@
       <c r="D32" s="214">
         <v>188124181.38</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="222" t="s">
+        <v>362</v>
+      </c>
+      <c r="F32" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G32" s="214">
+        <v>77447171.239999995</v>
+      </c>
+      <c r="H32" s="214">
+        <v>142988263.43000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="213" t="s">
         <v>314</v>
       </c>
@@ -5396,8 +5679,20 @@
       <c r="D33" s="214">
         <v>53566293.409999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="14.5">
+      <c r="E33" s="222" t="s">
+        <v>363</v>
+      </c>
+      <c r="F33" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G33" s="214">
+        <v>3086518351.96</v>
+      </c>
+      <c r="H33" s="214">
+        <v>4726395760.5600004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.5">
       <c r="A34" s="213" t="s">
         <v>315</v>
       </c>
@@ -5406,8 +5701,16 @@
       </c>
       <c r="C34" s="215"/>
       <c r="D34" s="215"/>
-    </row>
-    <row r="35" spans="1:4" ht="14.5">
+      <c r="E34" s="209" t="s">
+        <v>364</v>
+      </c>
+      <c r="F34" s="217" t="s">
+        <v>284</v>
+      </c>
+      <c r="G34" s="215"/>
+      <c r="H34" s="215"/>
+    </row>
+    <row r="35" spans="1:8" ht="14.5">
       <c r="A35" s="213" t="s">
         <v>316</v>
       </c>
@@ -5418,8 +5721,20 @@
         <v>16113352.41</v>
       </c>
       <c r="D35" s="215"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="213" t="s">
+        <v>365</v>
+      </c>
+      <c r="F35" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" s="214">
+        <v>622372316</v>
+      </c>
+      <c r="H35" s="214">
+        <v>623515807</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.5">
       <c r="A36" s="213" t="s">
         <v>317</v>
       </c>
@@ -5432,8 +5747,16 @@
       <c r="D36" s="214">
         <v>252327574.38</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="213" t="s">
+        <v>366</v>
+      </c>
+      <c r="F36" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G36" s="215"/>
+      <c r="H36" s="215"/>
+    </row>
+    <row r="37" spans="1:8" ht="14.5">
       <c r="A37" s="213" t="s">
         <v>318</v>
       </c>
@@ -5446,8 +5769,16 @@
       <c r="D37" s="214">
         <v>260803802.97999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="14.5">
+      <c r="E37" s="213" t="s">
+        <v>356</v>
+      </c>
+      <c r="F37" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G37" s="215"/>
+      <c r="H37" s="215"/>
+    </row>
+    <row r="38" spans="1:8" ht="14.5">
       <c r="A38" s="213" t="s">
         <v>319</v>
       </c>
@@ -5456,8 +5787,16 @@
       </c>
       <c r="C38" s="215"/>
       <c r="D38" s="215"/>
-    </row>
-    <row r="39" spans="1:4" ht="14.5">
+      <c r="E38" s="216" t="s">
+        <v>357</v>
+      </c>
+      <c r="F38" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G38" s="215"/>
+      <c r="H38" s="215"/>
+    </row>
+    <row r="39" spans="1:8" ht="14.5">
       <c r="A39" s="213" t="s">
         <v>320</v>
       </c>
@@ -5466,8 +5805,20 @@
       </c>
       <c r="C39" s="215"/>
       <c r="D39" s="215"/>
-    </row>
-    <row r="40" spans="1:4" ht="14.5">
+      <c r="E39" s="213" t="s">
+        <v>367</v>
+      </c>
+      <c r="F39" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G39" s="214">
+        <v>2078156372.6800001</v>
+      </c>
+      <c r="H39" s="214">
+        <v>2091171752.8900001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.5">
       <c r="A40" s="213" t="s">
         <v>321</v>
       </c>
@@ -5476,8 +5827,16 @@
       </c>
       <c r="C40" s="215"/>
       <c r="D40" s="215"/>
-    </row>
-    <row r="41" spans="1:4" ht="14.5">
+      <c r="E40" s="213" t="s">
+        <v>368</v>
+      </c>
+      <c r="F40" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G40" s="215"/>
+      <c r="H40" s="215"/>
+    </row>
+    <row r="41" spans="1:8" ht="14.5">
       <c r="A41" s="213" t="s">
         <v>322</v>
       </c>
@@ -5486,8 +5845,20 @@
       </c>
       <c r="C41" s="215"/>
       <c r="D41" s="215"/>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="213" t="s">
+        <v>369</v>
+      </c>
+      <c r="F41" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G41" s="214">
+        <v>-15751238.83</v>
+      </c>
+      <c r="H41" s="214">
+        <v>1508416.92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14.5">
       <c r="A42" s="213" t="s">
         <v>323</v>
       </c>
@@ -5500,8 +5871,16 @@
       <c r="D42" s="214">
         <v>63405749.630000003</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="14.5">
+      <c r="E42" s="213" t="s">
+        <v>370</v>
+      </c>
+      <c r="F42" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G42" s="215"/>
+      <c r="H42" s="215"/>
+    </row>
+    <row r="43" spans="1:8" ht="14.5">
       <c r="A43" s="218" t="s">
         <v>324</v>
       </c>
@@ -5510,8 +5889,20 @@
       </c>
       <c r="C43" s="219"/>
       <c r="D43" s="219"/>
-    </row>
-    <row r="44" spans="1:4" ht="14.5">
+      <c r="E43" s="213" t="s">
+        <v>371</v>
+      </c>
+      <c r="F43" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G43" s="214">
+        <v>19062040.02</v>
+      </c>
+      <c r="H43" s="214">
+        <v>19062040.02</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14.5">
       <c r="A44" s="218" t="s">
         <v>325</v>
       </c>
@@ -5522,8 +5913,16 @@
       <c r="D44" s="220">
         <v>1028261563.3200001</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="213" t="s">
+        <v>372</v>
+      </c>
+      <c r="F44" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G44" s="215"/>
+      <c r="H44" s="215"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="218" t="s">
         <v>326</v>
       </c>
@@ -5536,8 +5935,20 @@
       <c r="D45" s="221">
         <v>30540805.57</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" s="213" t="s">
+        <v>373</v>
+      </c>
+      <c r="F45" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G45" s="214">
+        <v>-3172094908.6500001</v>
+      </c>
+      <c r="H45" s="214">
+        <v>-125066537.89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="218" t="s">
         <v>327</v>
       </c>
@@ -5550,8 +5961,20 @@
       <c r="D46" s="221">
         <v>29391914.899999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="213" t="s">
+        <v>435</v>
+      </c>
+      <c r="F46" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G46" s="233">
+        <v>-468255418.77999997</v>
+      </c>
+      <c r="H46" s="233">
+        <v>2610191478.9400001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="14.5">
       <c r="A47" s="218" t="s">
         <v>328</v>
       </c>
@@ -5564,9 +5987,19 @@
       <c r="D47" s="221">
         <v>79278074.200000003</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="229" t="s">
+      <c r="E47" s="213" t="s">
+        <v>374</v>
+      </c>
+      <c r="F47" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G47" s="214">
+        <v>-89106.31</v>
+      </c>
+      <c r="H47" s="215"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="223" t="s">
         <v>329</v>
       </c>
       <c r="B48" s="218" t="s">
@@ -5578,9 +6011,21 @@
       <c r="D48" s="220">
         <v>2009377691.6700001</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="230" t="s">
+      <c r="E48" s="209" t="s">
+        <v>436</v>
+      </c>
+      <c r="F48" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G48" s="214">
+        <v>-468344525.08999997</v>
+      </c>
+      <c r="H48" s="214">
+        <v>2610191478.9400001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="224" t="s">
         <v>330</v>
       </c>
       <c r="B49" s="218" t="s">
@@ -5592,684 +6037,22 @@
       <c r="D49" s="220">
         <v>7336587239.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="14.5">
-      <c r="A50" s="223" t="s">
-        <v>331</v>
-      </c>
-      <c r="B50" s="224" t="s">
-        <v>284</v>
-      </c>
-      <c r="C50" s="219"/>
-      <c r="D50" s="219"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="218" t="s">
-        <v>332</v>
-      </c>
-      <c r="B51" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C51" s="221">
-        <v>1709073009.52</v>
-      </c>
-      <c r="D51" s="220">
-        <v>1041619581.4400001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="14.5">
-      <c r="A52" s="218" t="s">
-        <v>333</v>
-      </c>
-      <c r="B52" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C52" s="219"/>
-      <c r="D52" s="219"/>
-    </row>
-    <row r="53" spans="1:4" ht="14.5">
-      <c r="A53" s="218" t="s">
-        <v>334</v>
-      </c>
-      <c r="B53" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C53" s="219"/>
-      <c r="D53" s="219"/>
-    </row>
-    <row r="54" spans="1:4" ht="14.5">
-      <c r="A54" s="218" t="s">
-        <v>335</v>
-      </c>
-      <c r="B54" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C54" s="219"/>
-      <c r="D54" s="219"/>
-    </row>
-    <row r="55" spans="1:4" ht="14.5">
-      <c r="A55" s="218" t="s">
-        <v>439</v>
-      </c>
-      <c r="B55" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C55" s="219"/>
-      <c r="D55" s="219"/>
-    </row>
-    <row r="56" spans="1:4" ht="14.5">
-      <c r="A56" s="218" t="s">
-        <v>336</v>
-      </c>
-      <c r="B56" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C56" s="219"/>
-      <c r="D56" s="219"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="218" t="s">
-        <v>337</v>
-      </c>
-      <c r="B57" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C57" s="221">
-        <v>96304716.090000004</v>
-      </c>
-      <c r="D57" s="220">
-        <v>187800568.91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="218" t="s">
-        <v>338</v>
-      </c>
-      <c r="B58" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C58" s="221">
-        <v>601836796.69000006</v>
-      </c>
-      <c r="D58" s="220">
-        <v>2145733057.4400001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="218" t="s">
-        <v>339</v>
-      </c>
-      <c r="B59" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C59" s="221">
-        <v>202883386.56</v>
-      </c>
-      <c r="D59" s="220">
-        <v>270065963.33999997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="14.5">
-      <c r="A60" s="218" t="s">
-        <v>340</v>
-      </c>
-      <c r="B60" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C60" s="219"/>
-      <c r="D60" s="219"/>
-    </row>
-    <row r="61" spans="1:4" ht="14.5">
-      <c r="A61" s="218" t="s">
-        <v>341</v>
-      </c>
-      <c r="B61" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C61" s="219"/>
-      <c r="D61" s="219"/>
-    </row>
-    <row r="62" spans="1:4" ht="14.5">
-      <c r="A62" s="218" t="s">
-        <v>342</v>
-      </c>
-      <c r="B62" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C62" s="219"/>
-      <c r="D62" s="219"/>
-    </row>
-    <row r="63" spans="1:4" ht="14.5">
-      <c r="A63" s="218" t="s">
-        <v>343</v>
-      </c>
-      <c r="B63" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C63" s="219"/>
-      <c r="D63" s="219"/>
-    </row>
-    <row r="64" spans="1:4" ht="14.5">
-      <c r="A64" s="218" t="s">
-        <v>344</v>
-      </c>
-      <c r="B64" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C64" s="219"/>
-      <c r="D64" s="219"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="218" t="s">
-        <v>345</v>
-      </c>
-      <c r="B65" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C65" s="221">
-        <v>35745466.630000003</v>
-      </c>
-      <c r="D65" s="221">
-        <v>28742985.23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="218" t="s">
-        <v>346</v>
-      </c>
-      <c r="B66" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C66" s="221">
-        <v>32404706.449999999</v>
-      </c>
-      <c r="D66" s="220">
-        <v>185342945.19999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="218" t="s">
-        <v>347</v>
-      </c>
-      <c r="B67" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C67" s="221">
-        <v>261293127.62</v>
-      </c>
-      <c r="D67" s="220">
-        <v>128131691.98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="218" t="s">
-        <v>348</v>
-      </c>
-      <c r="B68" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C68" s="221">
-        <v>34053494.630000003</v>
-      </c>
-      <c r="D68" s="221">
-        <v>7516092.2599999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="222" t="s">
-        <v>349</v>
-      </c>
-      <c r="B69" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C69" s="225">
-        <v>240900</v>
-      </c>
-      <c r="D69" s="225">
-        <v>240900</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="14.5">
-      <c r="A70" s="218" t="s">
-        <v>350</v>
-      </c>
-      <c r="B70" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C70" s="219"/>
-      <c r="D70" s="219"/>
-    </row>
-    <row r="71" spans="1:4" ht="14.5">
-      <c r="A71" s="218" t="s">
-        <v>351</v>
-      </c>
-      <c r="B71" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C71" s="219"/>
-      <c r="D71" s="219"/>
-    </row>
-    <row r="72" spans="1:4" ht="14.5">
-      <c r="A72" s="218" t="s">
-        <v>352</v>
-      </c>
-      <c r="B72" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C72" s="219"/>
-      <c r="D72" s="219"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="218" t="s">
-        <v>353</v>
-      </c>
-      <c r="B73" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C73" s="221">
-        <v>29432656.32</v>
-      </c>
-      <c r="D73" s="220">
-        <v>595970703.59000003</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="14.5">
-      <c r="A74" s="218" t="s">
-        <v>354</v>
-      </c>
-      <c r="B74" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C74" s="221">
-        <v>40097314.840000004</v>
-      </c>
-      <c r="D74" s="219"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="229" t="s">
-        <v>355</v>
-      </c>
-      <c r="B75" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C75" s="221">
-        <v>3009071180.7199998</v>
-      </c>
-      <c r="D75" s="220">
-        <v>4583407497.1300001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="14.5">
-      <c r="A76" s="223" t="s">
-        <v>356</v>
-      </c>
-      <c r="B76" s="226" t="s">
-        <v>284</v>
-      </c>
-      <c r="C76" s="219"/>
-      <c r="D76" s="219"/>
-    </row>
-    <row r="77" spans="1:4" ht="14.5">
-      <c r="A77" s="218" t="s">
-        <v>357</v>
-      </c>
-      <c r="B77" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C77" s="219"/>
-      <c r="D77" s="219"/>
-    </row>
-    <row r="78" spans="1:4" ht="14.5">
-      <c r="A78" s="218" t="s">
-        <v>358</v>
-      </c>
-      <c r="B78" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C78" s="219"/>
-      <c r="D78" s="221">
-        <v>64300000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="14.5">
-      <c r="A79" s="218" t="s">
-        <v>359</v>
-      </c>
-      <c r="B79" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C79" s="219"/>
-      <c r="D79" s="219"/>
-    </row>
-    <row r="80" spans="1:4" ht="14.5">
-      <c r="A80" s="218" t="s">
-        <v>360</v>
-      </c>
-      <c r="B80" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C80" s="219"/>
-      <c r="D80" s="219"/>
-    </row>
-    <row r="81" spans="1:4" ht="14.5">
-      <c r="A81" s="222" t="s">
-        <v>361</v>
-      </c>
-      <c r="B81" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C81" s="219"/>
-      <c r="D81" s="219"/>
-    </row>
-    <row r="82" spans="1:4" ht="14.5">
-      <c r="A82" s="218" t="s">
-        <v>362</v>
-      </c>
-      <c r="B82" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C82" s="219"/>
-      <c r="D82" s="219"/>
-    </row>
-    <row r="83" spans="1:4" ht="14.5">
-      <c r="A83" s="218" t="s">
-        <v>363</v>
-      </c>
-      <c r="B83" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C83" s="219"/>
-      <c r="D83" s="219"/>
-    </row>
-    <row r="84" spans="1:4" ht="14.5">
-      <c r="A84" s="218" t="s">
-        <v>364</v>
-      </c>
-      <c r="B84" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C84" s="219"/>
-      <c r="D84" s="219"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="218" t="s">
-        <v>365</v>
-      </c>
-      <c r="B85" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C85" s="225">
-        <v>8363282.1200000001</v>
-      </c>
-      <c r="D85" s="225">
-        <v>234002.42</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="218" t="s">
-        <v>366</v>
-      </c>
-      <c r="B86" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C86" s="221">
-        <v>67628600.290000007</v>
-      </c>
-      <c r="D86" s="221">
-        <v>73273840.209999993</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="218" t="s">
-        <v>367</v>
-      </c>
-      <c r="B87" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C87" s="225">
-        <v>1455288.83</v>
-      </c>
-      <c r="D87" s="221">
-        <v>5180420.8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="14.5">
-      <c r="A88" s="218" t="s">
-        <v>368</v>
-      </c>
-      <c r="B88" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C88" s="219"/>
-      <c r="D88" s="219"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="229" t="s">
-        <v>369</v>
-      </c>
-      <c r="B89" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C89" s="221">
-        <v>77447171.239999995</v>
-      </c>
-      <c r="D89" s="220">
-        <v>142988263.43000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="230" t="s">
-        <v>370</v>
-      </c>
-      <c r="B90" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C90" s="221">
-        <v>3086518351.96</v>
-      </c>
-      <c r="D90" s="220">
-        <v>4726395760.5600004</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="14.5">
-      <c r="A91" s="223" t="s">
-        <v>371</v>
-      </c>
-      <c r="B91" s="226" t="s">
-        <v>284</v>
-      </c>
-      <c r="C91" s="219"/>
-      <c r="D91" s="219"/>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="218" t="s">
-        <v>372</v>
-      </c>
-      <c r="B92" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C92" s="221">
-        <v>622372316</v>
-      </c>
-      <c r="D92" s="220">
-        <v>623515807</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="14.5">
-      <c r="A93" s="218" t="s">
-        <v>373</v>
-      </c>
-      <c r="B93" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C93" s="219"/>
-      <c r="D93" s="219"/>
-    </row>
-    <row r="94" spans="1:4" ht="14.5">
-      <c r="A94" s="218" t="s">
-        <v>360</v>
-      </c>
-      <c r="B94" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C94" s="219"/>
-      <c r="D94" s="219"/>
-    </row>
-    <row r="95" spans="1:4" ht="14.5">
-      <c r="A95" s="222" t="s">
-        <v>361</v>
-      </c>
-      <c r="B95" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C95" s="219"/>
-      <c r="D95" s="219"/>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="218" t="s">
-        <v>374</v>
-      </c>
-      <c r="B96" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C96" s="221">
-        <v>2078156372.6800001</v>
-      </c>
-      <c r="D96" s="220">
-        <v>2091171752.8900001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="14.5">
-      <c r="A97" s="218" t="s">
-        <v>375</v>
-      </c>
-      <c r="B97" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C97" s="219"/>
-      <c r="D97" s="219"/>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="218" t="s">
-        <v>376</v>
-      </c>
-      <c r="B98" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C98" s="221">
-        <v>-15751238.83</v>
-      </c>
-      <c r="D98" s="221">
-        <v>1508416.92</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="14.5">
-      <c r="A99" s="218" t="s">
-        <v>377</v>
-      </c>
-      <c r="B99" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C99" s="219"/>
-      <c r="D99" s="219"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="218" t="s">
-        <v>378</v>
-      </c>
-      <c r="B100" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C100" s="221">
-        <v>19062040.02</v>
-      </c>
-      <c r="D100" s="221">
-        <v>19062040.02</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="14.5">
-      <c r="A101" s="218" t="s">
-        <v>379</v>
-      </c>
-      <c r="B101" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C101" s="219"/>
-      <c r="D101" s="219"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="218" t="s">
-        <v>380</v>
-      </c>
-      <c r="B102" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C102" s="220">
-        <v>-3172094908.6500001</v>
-      </c>
-      <c r="D102" s="220">
-        <v>-125066537.89</v>
-      </c>
-      <c r="G102" s="231"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="218" t="s">
-        <v>440</v>
-      </c>
-      <c r="B103" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C103" s="227">
-        <v>-468255418.77999997</v>
-      </c>
-      <c r="D103" s="227">
-        <v>2610191478.9400001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="14.5">
-      <c r="A104" s="218" t="s">
-        <v>381</v>
-      </c>
-      <c r="B104" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C104" s="225">
-        <v>-89106.31</v>
-      </c>
-      <c r="D104" s="219"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="223" t="s">
-        <v>441</v>
-      </c>
-      <c r="B105" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C105" s="221">
-        <v>-468344525.08999997</v>
-      </c>
-      <c r="D105" s="220">
-        <v>2610191478.9400001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="223" t="s">
-        <v>442</v>
-      </c>
-      <c r="B106" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="C106" s="221">
+      <c r="E49" s="209" t="s">
+        <v>437</v>
+      </c>
+      <c r="F49" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G49" s="214">
         <v>2618173826.8699999</v>
       </c>
-      <c r="D106" s="220">
+      <c r="H49" s="214">
         <v>7336587239.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6310,24 +6093,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="17.149999999999999" customHeight="1">
-      <c r="B1" s="242" t="s">
+      <c r="B1" s="246" t="s">
         <v>235</v>
       </c>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
       <c r="J1" s="147" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="2" spans="2:29" ht="17.149999999999999" customHeight="1">
-      <c r="B2" s="244" t="s">
+      <c r="B2" s="248" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="245"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="I2" s="256" t="s">
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="250"/>
+      <c r="I2" s="242" t="s">
         <v>122</v>
       </c>
       <c r="J2" s="148" t="s">
@@ -6379,7 +6162,7 @@
         <f>C8/120</f>
         <v>523.95291666666662</v>
       </c>
-      <c r="I3" s="257"/>
+      <c r="I3" s="243"/>
       <c r="J3" s="150" t="s">
         <v>244</v>
       </c>
@@ -6430,30 +6213,30 @@
       <c r="I4" s="152" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="247">
+      <c r="J4" s="251">
         <v>2020</v>
       </c>
-      <c r="K4" s="247"/>
-      <c r="L4" s="247"/>
-      <c r="M4" s="247"/>
-      <c r="N4" s="248">
+      <c r="K4" s="251"/>
+      <c r="L4" s="251"/>
+      <c r="M4" s="251"/>
+      <c r="N4" s="252">
         <v>2021</v>
       </c>
-      <c r="O4" s="248"/>
-      <c r="P4" s="248"/>
-      <c r="Q4" s="248"/>
-      <c r="R4" s="247">
+      <c r="O4" s="252"/>
+      <c r="P4" s="252"/>
+      <c r="Q4" s="252"/>
+      <c r="R4" s="251">
         <v>2022</v>
       </c>
-      <c r="S4" s="247"/>
-      <c r="T4" s="247"/>
-      <c r="U4" s="247"/>
-      <c r="V4" s="258">
+      <c r="S4" s="251"/>
+      <c r="T4" s="251"/>
+      <c r="U4" s="251"/>
+      <c r="V4" s="244">
         <v>2023</v>
       </c>
-      <c r="W4" s="258"/>
-      <c r="X4" s="258"/>
-      <c r="Y4" s="258"/>
+      <c r="W4" s="244"/>
+      <c r="X4" s="244"/>
+      <c r="Y4" s="244"/>
       <c r="Z4" s="194" t="s">
         <v>128</v>
       </c>
@@ -7808,34 +7591,34 @@
       <c r="I25" s="173" t="s">
         <v>182</v>
       </c>
-      <c r="J25" s="259">
+      <c r="J25" s="245">
         <f>M24</f>
         <v>73857.622543749996</v>
       </c>
-      <c r="K25" s="259"/>
-      <c r="L25" s="259"/>
-      <c r="M25" s="259"/>
-      <c r="N25" s="259">
+      <c r="K25" s="245"/>
+      <c r="L25" s="245"/>
+      <c r="M25" s="245"/>
+      <c r="N25" s="245">
         <f>Q24</f>
         <v>14526.513518749984</v>
       </c>
-      <c r="O25" s="259"/>
-      <c r="P25" s="259"/>
-      <c r="Q25" s="259"/>
-      <c r="R25" s="259">
+      <c r="O25" s="245"/>
+      <c r="P25" s="245"/>
+      <c r="Q25" s="245"/>
+      <c r="R25" s="245">
         <f>U24</f>
         <v>-9797.8202562500119</v>
       </c>
-      <c r="S25" s="259"/>
-      <c r="T25" s="259"/>
-      <c r="U25" s="259"/>
-      <c r="V25" s="259">
+      <c r="S25" s="245"/>
+      <c r="T25" s="245"/>
+      <c r="U25" s="245"/>
+      <c r="V25" s="245">
         <f>Y24</f>
         <v>-2547.200875000015</v>
       </c>
-      <c r="W25" s="259"/>
-      <c r="X25" s="259"/>
-      <c r="Y25" s="259"/>
+      <c r="W25" s="245"/>
+      <c r="X25" s="245"/>
+      <c r="Y25" s="245"/>
       <c r="Z25" s="203"/>
       <c r="AA25" s="199"/>
     </row>
@@ -8041,22 +7824,22 @@
       <c r="K32" s="175"/>
       <c r="L32" s="175"/>
       <c r="M32" s="175"/>
-      <c r="N32" s="249">
+      <c r="N32" s="235">
         <f>J38</f>
         <v>0.13464359540011772</v>
       </c>
-      <c r="O32" s="249"/>
-      <c r="P32" s="249"/>
-      <c r="Q32" s="249"/>
-      <c r="R32" s="249"/>
-      <c r="S32" s="249"/>
-      <c r="T32" s="249"/>
-      <c r="U32" s="249"/>
-      <c r="V32" s="249"/>
-      <c r="W32" s="249"/>
-      <c r="X32" s="249"/>
-      <c r="Y32" s="249"/>
-      <c r="Z32" s="250"/>
+      <c r="O32" s="235"/>
+      <c r="P32" s="235"/>
+      <c r="Q32" s="235"/>
+      <c r="R32" s="235"/>
+      <c r="S32" s="235"/>
+      <c r="T32" s="235"/>
+      <c r="U32" s="235"/>
+      <c r="V32" s="235"/>
+      <c r="W32" s="235"/>
+      <c r="X32" s="235"/>
+      <c r="Y32" s="235"/>
+      <c r="Z32" s="236"/>
       <c r="AA32" s="66"/>
     </row>
     <row r="33" spans="2:26" s="62" customFormat="1">
@@ -8085,22 +7868,22 @@
       <c r="K33" s="177"/>
       <c r="L33" s="177"/>
       <c r="M33" s="177"/>
-      <c r="N33" s="251">
+      <c r="N33" s="237">
         <f>D55/J16</f>
         <v>0.37643646079829907</v>
       </c>
-      <c r="O33" s="251"/>
-      <c r="P33" s="251"/>
-      <c r="Q33" s="251"/>
-      <c r="R33" s="251"/>
-      <c r="S33" s="251"/>
-      <c r="T33" s="251"/>
-      <c r="U33" s="251"/>
-      <c r="V33" s="251"/>
-      <c r="W33" s="251"/>
-      <c r="X33" s="251"/>
-      <c r="Y33" s="251"/>
-      <c r="Z33" s="252"/>
+      <c r="O33" s="237"/>
+      <c r="P33" s="237"/>
+      <c r="Q33" s="237"/>
+      <c r="R33" s="237"/>
+      <c r="S33" s="237"/>
+      <c r="T33" s="237"/>
+      <c r="U33" s="237"/>
+      <c r="V33" s="237"/>
+      <c r="W33" s="237"/>
+      <c r="X33" s="237"/>
+      <c r="Y33" s="237"/>
+      <c r="Z33" s="238"/>
     </row>
     <row r="34" spans="2:26" s="62" customFormat="1">
       <c r="B34" s="91" t="s">
@@ -8435,7 +8218,7 @@
       <c r="Z41" s="66"/>
     </row>
     <row r="42" spans="2:26" s="62" customFormat="1">
-      <c r="B42" s="253" t="s">
+      <c r="B42" s="239" t="s">
         <v>209</v>
       </c>
       <c r="C42" s="119" t="s">
@@ -8485,7 +8268,7 @@
       <c r="Z42" s="66"/>
     </row>
     <row r="43" spans="2:26" s="62" customFormat="1">
-      <c r="B43" s="254"/>
+      <c r="B43" s="240"/>
       <c r="C43" s="122" t="s">
         <v>211</v>
       </c>
@@ -8527,7 +8310,7 @@
       <c r="Z43" s="66"/>
     </row>
     <row r="44" spans="2:26" s="62" customFormat="1">
-      <c r="B44" s="254"/>
+      <c r="B44" s="240"/>
       <c r="C44" s="125" t="s">
         <v>212</v>
       </c>
@@ -8727,7 +8510,7 @@
       <c r="J50" s="66"/>
     </row>
     <row r="51" spans="2:10" s="62" customFormat="1">
-      <c r="B51" s="255" t="s">
+      <c r="B51" s="241" t="s">
         <v>220</v>
       </c>
       <c r="C51" s="129" t="s">
@@ -8744,7 +8527,7 @@
       <c r="J51" s="66"/>
     </row>
     <row r="52" spans="2:10" s="62" customFormat="1">
-      <c r="B52" s="255"/>
+      <c r="B52" s="241"/>
       <c r="C52" s="129" t="s">
         <v>222</v>
       </c>
@@ -8952,6 +8735,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
     <mergeCell ref="N32:Z32"/>
     <mergeCell ref="N33:Z33"/>
     <mergeCell ref="B42:B44"/>
@@ -8962,11 +8750,6 @@
     <mergeCell ref="N25:Q25"/>
     <mergeCell ref="R25:U25"/>
     <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -9002,21 +8785,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="234" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="33">
       <c r="A2" s="4" t="s">
@@ -10593,10 +10376,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:D42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -10608,827 +10391,838 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="225" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="232" t="s">
+      <c r="B1" s="225" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="232" t="s">
-        <v>382</v>
-      </c>
-      <c r="D1" s="232" t="s">
-        <v>383</v>
+      <c r="C1" s="225" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="225" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="210" t="s">
-        <v>384</v>
-      </c>
-      <c r="B2" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C2" s="234">
+        <v>377</v>
+      </c>
+      <c r="B2" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="227">
         <v>1556985105.98</v>
       </c>
-      <c r="D2" s="234">
+      <c r="D2" s="227">
         <v>6759565820.3599997</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="233" t="s">
-        <v>385</v>
-      </c>
-      <c r="B3" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="234">
+      <c r="A3" s="226" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="227">
         <v>1556985105.98</v>
       </c>
-      <c r="D3" s="234">
+      <c r="D3" s="227">
         <v>6759565820.3599997</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.5">
-      <c r="A4" s="235" t="s">
-        <v>386</v>
-      </c>
-      <c r="B4" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="236"/>
-      <c r="D4" s="236"/>
+      <c r="A4" s="228" t="s">
+        <v>379</v>
+      </c>
+      <c r="B4" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
     </row>
     <row r="5" spans="1:4" ht="14.5">
-      <c r="A5" s="235" t="s">
-        <v>387</v>
-      </c>
-      <c r="B5" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
+      <c r="A5" s="228" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="229"/>
+      <c r="D5" s="229"/>
     </row>
     <row r="6" spans="1:4" ht="14.5">
-      <c r="A6" s="235" t="s">
-        <v>388</v>
-      </c>
-      <c r="B6" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
+      <c r="A6" s="228" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="229"/>
+      <c r="D6" s="229"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="210" t="s">
+        <v>382</v>
+      </c>
+      <c r="B7" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="227">
+        <v>2043002451.71</v>
+      </c>
+      <c r="D7" s="227">
+        <v>6566582322.6300001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="226" t="s">
+        <v>383</v>
+      </c>
+      <c r="B8" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="227">
+        <v>1550744992.3399999</v>
+      </c>
+      <c r="D8" s="227">
+        <v>6116617137.5100002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.5">
+      <c r="A9" s="228" t="s">
+        <v>384</v>
+      </c>
+      <c r="B9" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="229"/>
+      <c r="D9" s="229"/>
+    </row>
+    <row r="10" spans="1:4" ht="14.5">
+      <c r="A10" s="228" t="s">
+        <v>385</v>
+      </c>
+      <c r="B10" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" s="229"/>
+      <c r="D10" s="229"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.5">
+      <c r="A11" s="228" t="s">
+        <v>386</v>
+      </c>
+      <c r="B11" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="229"/>
+      <c r="D11" s="229"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.5">
+      <c r="A12" s="228" t="s">
+        <v>387</v>
+      </c>
+      <c r="B12" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="229"/>
+      <c r="D12" s="229"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.5">
+      <c r="A13" s="228" t="s">
+        <v>388</v>
+      </c>
+      <c r="B13" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="229"/>
+      <c r="D13" s="229"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.5">
+      <c r="A14" s="228" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" s="234">
-        <v>2043002451.71</v>
-      </c>
-      <c r="D7" s="234">
-        <v>6566582322.6300001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="233" t="s">
+      <c r="B14" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="229"/>
+      <c r="D14" s="229"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.5">
+      <c r="A15" s="228" t="s">
         <v>390</v>
       </c>
-      <c r="B8" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" s="234">
-        <v>1550744992.3399999</v>
-      </c>
-      <c r="D8" s="234">
-        <v>6116617137.5100002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.5">
-      <c r="A9" s="235" t="s">
+      <c r="B15" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" s="229"/>
+      <c r="D15" s="229"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="228" t="s">
         <v>391</v>
       </c>
-      <c r="B9" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-    </row>
-    <row r="10" spans="1:4" ht="14.5">
-      <c r="A10" s="235" t="s">
+      <c r="B16" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="227">
+        <v>11267529.220000001</v>
+      </c>
+      <c r="D16" s="227">
+        <v>21277357.489999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="228" t="s">
         <v>392</v>
       </c>
-      <c r="B10" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-    </row>
-    <row r="11" spans="1:4" ht="14.5">
-      <c r="A11" s="235" t="s">
+      <c r="B17" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" s="227">
+        <v>50291080.619999997</v>
+      </c>
+      <c r="D17" s="227">
+        <v>44574538.140000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="228" t="s">
         <v>393</v>
       </c>
-      <c r="B11" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C11" s="236"/>
-      <c r="D11" s="236"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.5">
-      <c r="A12" s="235" t="s">
+      <c r="B18" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="227">
+        <v>160653154.13</v>
+      </c>
+      <c r="D18" s="227">
+        <v>151242477.75999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="228" t="s">
         <v>394</v>
       </c>
-      <c r="B12" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C12" s="236"/>
-      <c r="D12" s="236"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.5">
-      <c r="A13" s="235" t="s">
+      <c r="B19" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19" s="227">
+        <v>133058192.36</v>
+      </c>
+      <c r="D19" s="227">
+        <v>124449915.89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="228" t="s">
         <v>395</v>
       </c>
-      <c r="B13" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C13" s="236"/>
-      <c r="D13" s="236"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.5">
-      <c r="A14" s="235" t="s">
+      <c r="B20" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C20" s="227">
+        <v>136987503.03999999</v>
+      </c>
+      <c r="D20" s="227">
+        <v>108420895.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="228" t="s">
         <v>396</v>
       </c>
-      <c r="B14" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C14" s="236"/>
-      <c r="D14" s="236"/>
-    </row>
-    <row r="15" spans="1:4" ht="14.5">
-      <c r="A15" s="235" t="s">
+      <c r="B21" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="227">
+        <v>148310424.03999999</v>
+      </c>
+      <c r="D21" s="227">
+        <v>145541924.84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="228" t="s">
+        <v>379</v>
+      </c>
+      <c r="B22" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C22" s="227">
+        <v>14889300</v>
+      </c>
+      <c r="D22" s="227">
+        <v>13039887.66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="226" t="s">
         <v>397</v>
       </c>
-      <c r="B15" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C15" s="236"/>
-      <c r="D15" s="236"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="235" t="s">
+      <c r="B23" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="227">
+        <v>31947302.16</v>
+      </c>
+      <c r="D23" s="227">
+        <v>83798457.420000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="228" t="s">
         <v>398</v>
       </c>
-      <c r="B16" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C16" s="234">
-        <v>11267529.220000001</v>
-      </c>
-      <c r="D16" s="234">
-        <v>21277357.489999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="235" t="s">
+      <c r="B24" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="227">
+        <v>834590.36</v>
+      </c>
+      <c r="D24" s="227">
+        <v>3551950.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="226" t="s">
+        <v>438</v>
+      </c>
+      <c r="B25" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="227">
+        <v>834590.36</v>
+      </c>
+      <c r="D25" s="227">
+        <v>1875733.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="226" t="s">
         <v>399</v>
       </c>
-      <c r="B17" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C17" s="234">
-        <v>50291080.619999997</v>
-      </c>
-      <c r="D17" s="234">
-        <v>44574538.140000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="235" t="s">
+      <c r="B26" s="254" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="255"/>
+      <c r="D26" s="255"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="226" t="s">
         <v>400</v>
       </c>
-      <c r="B18" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C18" s="234">
-        <v>160653154.13</v>
-      </c>
-      <c r="D18" s="234">
-        <v>151242477.75999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="235" t="s">
+      <c r="B27" s="254"/>
+      <c r="C27" s="255"/>
+      <c r="D27" s="255"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.5">
+      <c r="A28" s="228" t="s">
         <v>401</v>
       </c>
-      <c r="B19" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C19" s="234">
-        <v>133058192.36</v>
-      </c>
-      <c r="D19" s="234">
-        <v>124449915.89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="235" t="s">
+      <c r="B28" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C28" s="229"/>
+      <c r="D28" s="229"/>
+    </row>
+    <row r="29" spans="1:4" ht="14.5">
+      <c r="A29" s="228" t="s">
         <v>402</v>
       </c>
-      <c r="B20" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C20" s="234">
-        <v>136987503.03999999</v>
-      </c>
-      <c r="D20" s="234">
-        <v>108420895.84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="235" t="s">
+      <c r="B29" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C29" s="229"/>
+      <c r="D29" s="229"/>
+    </row>
+    <row r="30" spans="1:4" ht="14" customHeight="1">
+      <c r="A30" s="226" t="s">
+        <v>439</v>
+      </c>
+      <c r="B30" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" s="227">
+        <v>-7564379.4900000002</v>
+      </c>
+      <c r="D30" s="229"/>
+    </row>
+    <row r="31" spans="1:4" ht="14.5">
+      <c r="A31" s="228" t="s">
         <v>403</v>
       </c>
-      <c r="B21" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C21" s="234">
-        <v>148310424.03999999</v>
-      </c>
-      <c r="D21" s="234">
-        <v>145541924.84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="235" t="s">
-        <v>386</v>
-      </c>
-      <c r="B22" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C22" s="234">
-        <v>14889300</v>
-      </c>
-      <c r="D22" s="234">
-        <v>13039887.66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="233" t="s">
+      <c r="B31" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" s="227">
+        <v>-209517117.19999999</v>
+      </c>
+      <c r="D31" s="229"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="228" t="s">
         <v>404</v>
       </c>
-      <c r="B23" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C23" s="234">
-        <v>31947302.16</v>
-      </c>
-      <c r="D23" s="234">
-        <v>83798457.420000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="235" t="s">
+      <c r="B32" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" s="227">
+        <v>-2403205485.5900002</v>
+      </c>
+      <c r="D32" s="227">
+        <v>-492789569.94999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="228" t="s">
         <v>405</v>
       </c>
-      <c r="B24" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C24" s="234">
-        <v>834590.36</v>
-      </c>
-      <c r="D24" s="234">
-        <v>3551950.26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="233" t="s">
+      <c r="B33" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C33" s="227">
+        <v>-43943.58</v>
+      </c>
+      <c r="D33" s="227">
+        <v>74397.88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="210" t="s">
+        <v>406</v>
+      </c>
+      <c r="B34" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" s="227">
+        <v>-3073566379.0700002</v>
+      </c>
+      <c r="D34" s="227">
+        <v>-212381266.66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="226" t="s">
+        <v>407</v>
+      </c>
+      <c r="B35" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C35" s="227">
+        <v>14306304.34</v>
+      </c>
+      <c r="D35" s="227">
+        <v>513651.81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="226" t="s">
+        <v>408</v>
+      </c>
+      <c r="B36" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C36" s="227">
+        <v>23968132.079999998</v>
+      </c>
+      <c r="D36" s="227">
+        <v>1113558.0900000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="210" t="s">
+        <v>409</v>
+      </c>
+      <c r="B37" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C37" s="227">
+        <v>-3083228206.8099999</v>
+      </c>
+      <c r="D37" s="227">
+        <v>-212981172.94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="226" t="s">
+        <v>410</v>
+      </c>
+      <c r="B38" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C38" s="227">
+        <v>-36110729.740000002</v>
+      </c>
+      <c r="D38" s="227">
+        <v>54174557.439999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="210" t="s">
+        <v>411</v>
+      </c>
+      <c r="B39" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C39" s="227">
+        <v>-3047117477.0700002</v>
+      </c>
+      <c r="D39" s="227">
+        <v>-267155730.38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="253" t="s">
+        <v>412</v>
+      </c>
+      <c r="B40" s="253"/>
+      <c r="C40" s="253"/>
+      <c r="D40" s="253"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="226" t="s">
+        <v>440</v>
+      </c>
+      <c r="B41" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C41" s="227">
+        <v>-3047092689.23</v>
+      </c>
+      <c r="D41" s="227">
+        <v>-267155730.38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="14" customHeight="1">
+      <c r="A42" s="226" t="s">
+        <v>441</v>
+      </c>
+      <c r="B42" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C42" s="227">
+        <v>-24787.84</v>
+      </c>
+      <c r="D42" s="229"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="253" t="s">
+        <v>413</v>
+      </c>
+      <c r="B43" s="253"/>
+      <c r="C43" s="253"/>
+      <c r="D43" s="253"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="226" t="s">
+        <v>442</v>
+      </c>
+      <c r="B44" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C44" s="227">
+        <v>-3047028370.7600002</v>
+      </c>
+      <c r="D44" s="227">
+        <v>-267155730.38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="14.5">
+      <c r="A45" s="228" t="s">
+        <v>414</v>
+      </c>
+      <c r="B45" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C45" s="227">
+        <v>-89106.31</v>
+      </c>
+      <c r="D45" s="229"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="210" t="s">
+        <v>415</v>
+      </c>
+      <c r="B46" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C46" s="227">
+        <v>-17259655.75</v>
+      </c>
+      <c r="D46" s="227">
+        <v>2563206.29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="226" t="s">
         <v>443</v>
       </c>
-      <c r="B25" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C25" s="234">
-        <v>834590.36</v>
-      </c>
-      <c r="D25" s="234">
-        <v>1875733.16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="14" customHeight="1">
-      <c r="A26" s="233" t="s">
-        <v>456</v>
-      </c>
-      <c r="B26" s="239" t="s">
-        <v>284</v>
-      </c>
-      <c r="C26" s="237"/>
-      <c r="D26" s="237"/>
-    </row>
-    <row r="27" spans="1:4" ht="14.5">
-      <c r="A27" s="235" t="s">
-        <v>406</v>
-      </c>
-      <c r="B27" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C27" s="236"/>
-      <c r="D27" s="236"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.5">
-      <c r="A28" s="235" t="s">
-        <v>407</v>
-      </c>
-      <c r="B28" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C28" s="236"/>
-      <c r="D28" s="236"/>
-    </row>
-    <row r="29" spans="1:4" ht="14" customHeight="1">
-      <c r="A29" s="233" t="s">
+      <c r="B47" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" s="227">
+        <v>-17259655.75</v>
+      </c>
+      <c r="D47" s="227">
+        <v>2563206.29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="14.5">
+      <c r="A48" s="228" t="s">
+        <v>416</v>
+      </c>
+      <c r="B48" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C48" s="229"/>
+      <c r="D48" s="229"/>
+    </row>
+    <row r="49" spans="1:4" ht="14.5">
+      <c r="A49" s="226" t="s">
+        <v>417</v>
+      </c>
+      <c r="B49" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C49" s="229"/>
+      <c r="D49" s="229"/>
+    </row>
+    <row r="50" spans="1:4" ht="14.5">
+      <c r="A50" s="226" t="s">
+        <v>418</v>
+      </c>
+      <c r="B50" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C50" s="229"/>
+      <c r="D50" s="229"/>
+    </row>
+    <row r="51" spans="1:4" ht="14.5">
+      <c r="A51" s="226" t="s">
+        <v>419</v>
+      </c>
+      <c r="B51" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C51" s="229"/>
+      <c r="D51" s="229"/>
+    </row>
+    <row r="52" spans="1:4" ht="14.5">
+      <c r="A52" s="226" t="s">
+        <v>420</v>
+      </c>
+      <c r="B52" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C52" s="229"/>
+      <c r="D52" s="229"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="228" t="s">
+        <v>421</v>
+      </c>
+      <c r="B53" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C53" s="227">
+        <v>-17259655.75</v>
+      </c>
+      <c r="D53" s="227">
+        <v>2563206.29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="14.5">
+      <c r="A54" s="226" t="s">
+        <v>422</v>
+      </c>
+      <c r="B54" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C54" s="229"/>
+      <c r="D54" s="229"/>
+    </row>
+    <row r="55" spans="1:4" ht="14.5">
+      <c r="A55" s="226" t="s">
+        <v>423</v>
+      </c>
+      <c r="B55" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C55" s="229"/>
+      <c r="D55" s="229"/>
+    </row>
+    <row r="56" spans="1:4" ht="14.5">
+      <c r="A56" s="226" t="s">
+        <v>424</v>
+      </c>
+      <c r="B56" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C56" s="229"/>
+      <c r="D56" s="229"/>
+    </row>
+    <row r="57" spans="1:4" ht="14" customHeight="1">
+      <c r="A57" s="226" t="s">
         <v>444</v>
       </c>
-      <c r="B29" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C29" s="234">
-        <v>-7564379.4900000002</v>
-      </c>
-      <c r="D29" s="236"/>
-    </row>
-    <row r="30" spans="1:4" ht="14.5">
-      <c r="A30" s="235" t="s">
-        <v>408</v>
-      </c>
-      <c r="B30" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C30" s="234">
-        <v>-209517117.19999999</v>
-      </c>
-      <c r="D30" s="236"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="235" t="s">
-        <v>409</v>
-      </c>
-      <c r="B31" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C31" s="234">
-        <v>-2403205485.5900002</v>
-      </c>
-      <c r="D31" s="234">
-        <v>-492789569.94999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="235" t="s">
-        <v>410</v>
-      </c>
-      <c r="B32" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C32" s="234">
-        <v>-43943.58</v>
-      </c>
-      <c r="D32" s="234">
-        <v>74397.88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="210" t="s">
-        <v>411</v>
-      </c>
-      <c r="B33" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C33" s="234">
-        <v>-3073566379.0700002</v>
-      </c>
-      <c r="D33" s="234">
-        <v>-212381266.66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="233" t="s">
-        <v>412</v>
-      </c>
-      <c r="B34" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C34" s="234">
-        <v>14306304.34</v>
-      </c>
-      <c r="D34" s="234">
-        <v>513651.81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="233" t="s">
-        <v>413</v>
-      </c>
-      <c r="B35" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C35" s="234">
-        <v>23968132.079999998</v>
-      </c>
-      <c r="D35" s="234">
-        <v>1113558.0900000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="210" t="s">
-        <v>414</v>
-      </c>
-      <c r="B36" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C36" s="234">
-        <v>-3083228206.8099999</v>
-      </c>
-      <c r="D36" s="234">
-        <v>-212981172.94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="233" t="s">
-        <v>415</v>
-      </c>
-      <c r="B37" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C37" s="234">
-        <v>-36110729.740000002</v>
-      </c>
-      <c r="D37" s="234">
-        <v>54174557.439999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="210" t="s">
-        <v>416</v>
-      </c>
-      <c r="B38" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C38" s="234">
-        <v>-3047117477.0700002</v>
-      </c>
-      <c r="D38" s="234">
-        <v>-267155730.38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="260" t="s">
-        <v>417</v>
-      </c>
-      <c r="B39" s="260"/>
-      <c r="C39" s="260"/>
-      <c r="D39" s="260"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="233" t="s">
+      <c r="B57" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C57" s="229"/>
+      <c r="D57" s="229"/>
+    </row>
+    <row r="58" spans="1:4" ht="14" customHeight="1">
+      <c r="A58" s="226" t="s">
         <v>445</v>
       </c>
-      <c r="B40" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C40" s="234">
-        <v>-3047092689.23</v>
-      </c>
-      <c r="D40" s="234">
-        <v>-267155730.38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="14" customHeight="1">
-      <c r="A41" s="233" t="s">
+      <c r="B58" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C58" s="229"/>
+      <c r="D58" s="229"/>
+    </row>
+    <row r="59" spans="1:4" ht="14.5">
+      <c r="A59" s="226" t="s">
+        <v>425</v>
+      </c>
+      <c r="B59" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" s="229"/>
+      <c r="D59" s="229"/>
+    </row>
+    <row r="60" spans="1:4" ht="14.5">
+      <c r="A60" s="226" t="s">
         <v>446</v>
       </c>
-      <c r="B41" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C41" s="234">
-        <v>-24787.84</v>
-      </c>
-      <c r="D41" s="236"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="260" t="s">
-        <v>418</v>
-      </c>
-      <c r="B42" s="260"/>
-      <c r="C42" s="260"/>
-      <c r="D42" s="260"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="233" t="s">
+      <c r="B60" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C60" s="229"/>
+      <c r="D60" s="229"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="226" t="s">
+        <v>426</v>
+      </c>
+      <c r="B61" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C61" s="227">
+        <v>-17259655.75</v>
+      </c>
+      <c r="D61" s="227">
+        <v>2563206.29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="14.5">
+      <c r="A62" s="226" t="s">
+        <v>427</v>
+      </c>
+      <c r="B62" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C62" s="229"/>
+      <c r="D62" s="229"/>
+    </row>
+    <row r="63" spans="1:4" ht="14" customHeight="1">
+      <c r="A63" s="226" t="s">
         <v>447</v>
       </c>
-      <c r="B43" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C43" s="234">
-        <v>-3047028370.7600002</v>
-      </c>
-      <c r="D43" s="234">
-        <v>-267155730.38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="14.5">
-      <c r="A44" s="235" t="s">
-        <v>419</v>
-      </c>
-      <c r="B44" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C44" s="234">
+      <c r="B63" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C63" s="229"/>
+      <c r="D63" s="229"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="210" t="s">
+        <v>428</v>
+      </c>
+      <c r="B64" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C64" s="227">
+        <v>-3064377132.8200002</v>
+      </c>
+      <c r="D64" s="227">
+        <v>-264592524.09</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="226" t="s">
+        <v>448</v>
+      </c>
+      <c r="B65" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C65" s="227">
+        <v>-3064288026.5100002</v>
+      </c>
+      <c r="D65" s="227">
+        <v>-264592524.09</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="14.5">
+      <c r="A66" s="226" t="s">
+        <v>429</v>
+      </c>
+      <c r="B66" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C66" s="227">
         <v>-89106.31</v>
       </c>
-      <c r="D44" s="236"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="210" t="s">
-        <v>420</v>
-      </c>
-      <c r="B45" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C45" s="234">
-        <v>-17259655.75</v>
-      </c>
-      <c r="D45" s="234">
-        <v>2563206.29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="233" t="s">
-        <v>448</v>
-      </c>
-      <c r="B46" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C46" s="234">
-        <v>-17259655.75</v>
-      </c>
-      <c r="D46" s="234">
-        <v>2563206.29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="14.5">
-      <c r="A47" s="235" t="s">
-        <v>421</v>
-      </c>
-      <c r="B47" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C47" s="236"/>
-      <c r="D47" s="236"/>
-    </row>
-    <row r="48" spans="1:4" ht="14.5">
-      <c r="A48" s="233" t="s">
-        <v>422</v>
-      </c>
-      <c r="B48" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C48" s="236"/>
-      <c r="D48" s="236"/>
-    </row>
-    <row r="49" spans="1:4" ht="14.5">
-      <c r="A49" s="233" t="s">
-        <v>423</v>
-      </c>
-      <c r="B49" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C49" s="236"/>
-      <c r="D49" s="236"/>
-    </row>
-    <row r="50" spans="1:4" ht="14.5">
-      <c r="A50" s="233" t="s">
-        <v>424</v>
-      </c>
-      <c r="B50" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C50" s="236"/>
-      <c r="D50" s="236"/>
-    </row>
-    <row r="51" spans="1:4" ht="14.5">
-      <c r="A51" s="233" t="s">
-        <v>425</v>
-      </c>
-      <c r="B51" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C51" s="236"/>
-      <c r="D51" s="236"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="235" t="s">
-        <v>426</v>
-      </c>
-      <c r="B52" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C52" s="234">
-        <v>-17259655.75</v>
-      </c>
-      <c r="D52" s="234">
-        <v>2563206.29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="14.5">
-      <c r="A53" s="233" t="s">
-        <v>427</v>
-      </c>
-      <c r="B53" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C53" s="236"/>
-      <c r="D53" s="236"/>
-    </row>
-    <row r="54" spans="1:4" ht="14.5">
-      <c r="A54" s="233" t="s">
-        <v>428</v>
-      </c>
-      <c r="B54" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C54" s="236"/>
-      <c r="D54" s="236"/>
-    </row>
-    <row r="55" spans="1:4" ht="14.5">
-      <c r="A55" s="233" t="s">
-        <v>429</v>
-      </c>
-      <c r="B55" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C55" s="236"/>
-      <c r="D55" s="236"/>
-    </row>
-    <row r="56" spans="1:4" ht="14" customHeight="1">
-      <c r="A56" s="233" t="s">
-        <v>449</v>
-      </c>
-      <c r="B56" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C56" s="236"/>
-      <c r="D56" s="236"/>
-    </row>
-    <row r="57" spans="1:4" ht="14" customHeight="1">
-      <c r="A57" s="233" t="s">
-        <v>450</v>
-      </c>
-      <c r="B57" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C57" s="236"/>
-      <c r="D57" s="236"/>
-    </row>
-    <row r="58" spans="1:4" ht="14.5">
-      <c r="A58" s="233" t="s">
+      <c r="D66" s="229"/>
+    </row>
+    <row r="67" spans="1:4" ht="14.5">
+      <c r="A67" s="210" t="s">
         <v>430</v>
       </c>
-      <c r="B58" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C58" s="236"/>
-      <c r="D58" s="236"/>
-    </row>
-    <row r="59" spans="1:4" ht="14.5">
-      <c r="A59" s="233" t="s">
-        <v>451</v>
-      </c>
-      <c r="B59" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C59" s="236"/>
-      <c r="D59" s="236"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="233" t="s">
+      <c r="B67" s="231" t="s">
+        <v>284</v>
+      </c>
+      <c r="C67" s="229"/>
+      <c r="D67" s="229"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="226" t="s">
         <v>431</v>
       </c>
-      <c r="B60" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C60" s="234">
-        <v>-17259655.75</v>
-      </c>
-      <c r="D60" s="234">
-        <v>2563206.29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="14.5">
-      <c r="A61" s="233" t="s">
+      <c r="B68" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C68" s="227">
+        <v>-4.8906000000000001</v>
+      </c>
+      <c r="D68" s="227">
+        <v>-0.42849999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="226" t="s">
         <v>432</v>
       </c>
-      <c r="B61" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C61" s="236"/>
-      <c r="D61" s="236"/>
-    </row>
-    <row r="62" spans="1:4" ht="14" customHeight="1">
-      <c r="A62" s="233" t="s">
-        <v>452</v>
-      </c>
-      <c r="B62" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C62" s="236"/>
-      <c r="D62" s="236"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="210" t="s">
-        <v>433</v>
-      </c>
-      <c r="B63" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C63" s="234">
-        <v>-3064377132.8200002</v>
-      </c>
-      <c r="D63" s="234">
-        <v>-264592524.09</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="233" t="s">
-        <v>453</v>
-      </c>
-      <c r="B64" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C64" s="234">
-        <v>-3064288026.5100002</v>
-      </c>
-      <c r="D64" s="234">
-        <v>-264592524.09</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="14.5">
-      <c r="A65" s="233" t="s">
-        <v>434</v>
-      </c>
-      <c r="B65" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C65" s="234">
-        <v>-89106.31</v>
-      </c>
-      <c r="D65" s="236"/>
-    </row>
-    <row r="66" spans="1:4" ht="14.5">
-      <c r="A66" s="210" t="s">
-        <v>435</v>
-      </c>
-      <c r="B66" s="240" t="s">
-        <v>284</v>
-      </c>
-      <c r="C66" s="236"/>
-      <c r="D66" s="236"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="233" t="s">
-        <v>436</v>
-      </c>
-      <c r="B67" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C67" s="234">
+      <c r="B69" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C69" s="227">
         <v>-4.8906000000000001</v>
       </c>
-      <c r="D67" s="234">
+      <c r="D69" s="227">
         <v>-0.42849999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="233" t="s">
-        <v>437</v>
-      </c>
-      <c r="B68" s="238" t="s">
-        <v>284</v>
-      </c>
-      <c r="C68" s="234">
-        <v>-4.8906000000000001</v>
-      </c>
-      <c r="D68" s="234">
-        <v>-0.42849999999999999</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A39:D39"/>
+  <mergeCells count="5">
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
